--- a/arranged_dataset/DIP.xlsx
+++ b/arranged_dataset/DIP.xlsx
@@ -19,13 +19,13 @@
     <t>entry</t>
   </si>
   <si>
-    <t>smiles</t>
+    <t>SMILES</t>
   </si>
   <si>
     <t>ROMol</t>
   </si>
   <si>
-    <t>inchikey</t>
+    <t>InChIKey</t>
   </si>
   <si>
     <t>er.</t>
@@ -43,694 +43,694 @@
     <t>test</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1)C(C)(C)C</t>
+    <t>COc1ccc(C(C)=O)cc1OC</t>
+  </si>
+  <si>
+    <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(97)00440-1 </t>
+  </si>
+  <si>
+    <t>CC(=O)/C=C/c1ccccc1</t>
+  </si>
+  <si>
+    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/ar00013a003 </t>
+  </si>
+  <si>
+    <t>O=C1CCCC12CCCC2</t>
+  </si>
+  <si>
+    <t>QRYJGVNQNLCGGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccc1Cl</t>
+  </si>
+  <si>
+    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(95)00609-G </t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>QKLCQKPAECHXCQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo025594y </t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo00248a005 </t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>LISOVATZGSPQOC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0957-4166(94)80056-1 </t>
+  </si>
+  <si>
+    <t>CC1(C)CCCC1=O</t>
+  </si>
+  <si>
+    <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)CF</t>
+  </si>
+  <si>
+    <t>MSWVMWGCNZQPIA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jfluchem.2007.04.015 </t>
+  </si>
+  <si>
+    <t>COc1ccc(F)cc1C(C)=O</t>
+  </si>
+  <si>
+    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(00)76780-3 </t>
+  </si>
+  <si>
+    <t>O=C(CCCCl)c1ccc(F)cc1</t>
+  </si>
+  <si>
+    <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0957-4166(00)82208-9 </t>
+  </si>
+  <si>
+    <t>CCCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FFSAXUULYPJSKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/ja00213a030 </t>
+  </si>
+  <si>
+    <t>CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>XAXKYUYIYBKVHR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C=CCC(C)(C)C(=O)C#CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCCl)c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>SYWQQEVHZPPLNQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>BRUOEHVDTAORQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCCl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1c2ccccc2cc2ccccc12)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>MNCMBBIFTVWHIP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0040-4020(01)80530-5 </t>
+  </si>
+  <si>
+    <t>CCCCC(=O)c1ccccc1C(=O)OC</t>
+  </si>
+  <si>
+    <t>QTUYJWKFWYJIOM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(96)00260-2 </t>
+  </si>
+  <si>
+    <t>CCCC(=O)c1ccc(Cl)cc1-c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>JGUYBMKIKPABSY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C1CCCCC1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>RPTSLLGEWZGTHJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)c1ccccc1</t>
   </si>
   <si>
     <t>OECPUBRNDKXFDX-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/10.1016/0957-4166(94)80056-1 </t>
-  </si>
-  <si>
-    <t>c1cc(F)ccc1C(=O)CCCCl</t>
-  </si>
-  <si>
-    <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0957-4166(00)82208-9 </t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)C</t>
+    <t>COc1cccc(OC)c1C(C)=O</t>
+  </si>
+  <si>
+    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>DPQDBEUDQJLCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
+  </si>
+  <si>
+    <t>MMUXSGDQWCOFKS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CBr)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>ONZQYZKCUHFORE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo00106a012 </t>
+  </si>
+  <si>
+    <t>CC(=O)c1cccs1</t>
+  </si>
+  <si>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1c(Cl)cc(Cl)cc1C(C)=O</t>
+  </si>
+  <si>
+    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1CCCC1</t>
+  </si>
+  <si>
+    <t>LKENTYLPIUIMFG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo00280a013 </t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccc1F</t>
+  </si>
+  <si>
+    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>VCARCPYEXCPAJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1CCCC1(c1ccccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/ja00165a036 </t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)C(C)=O</t>
+  </si>
+  <si>
+    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)CF</t>
+  </si>
+  <si>
+    <t>KXSOGUNMZUFDEV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(Cl)Cl</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccc([N+](=O)[O-])cc1</t>
+  </si>
+  <si>
+    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)F</t>
+  </si>
+  <si>
+    <t>PWFHYGISSIMQKI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
+  </si>
+  <si>
+    <t>O=C(CCl)c1ccc(Cl)cc1Cl</t>
+  </si>
+  <si>
+    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)=O</t>
+  </si>
+  <si>
+    <t>XXRCUYVCPSWGCC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(Cl)(Cl)Cl</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(C(C)=O)cc1</t>
+  </si>
+  <si>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1cc(OC)ccc1OC</t>
+  </si>
+  <si>
+    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccccc1C(=O)OC</t>
+  </si>
+  <si>
+    <t>PJVVSYKDAYJZCV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC1(C)CCCCC1=O</t>
+  </si>
+  <si>
+    <t>KNSPBSQWRKKAPI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
+  </si>
+  <si>
+    <t>ZKJADHMQUMUECR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)[C@]1(C)CCCC1=O</t>
+  </si>
+  <si>
+    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)CCl</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)C#CC1CCCCC1</t>
+  </si>
+  <si>
+    <t>SCDHTAAYEHJTGD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1CCc2ccccc21</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)(C)C(C)=O</t>
+  </si>
+  <si>
+    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FHUDAMLDXFJHJE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)CF</t>
+  </si>
+  <si>
+    <t>RRJHAIWETICRET-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>UKYZDGAVBNKBPQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(C)cc1C(C)=O</t>
+  </si>
+  <si>
+    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)c1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>NQSMEZJWJJVYOI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCC(=O)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>UYMHLXHLPQIDMA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(C)=O</t>
+  </si>
+  <si>
+    <t>ZWEHNKRNPOVVGH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1cccc2ccccc12)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>VQCWOGKZDGCRES-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
+  </si>
+  <si>
+    <t>QRJXIADOTSHIRY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1C=CCCC1</t>
+  </si>
+  <si>
+    <t>FWFSEYBSWVRWGL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(Cl)(Cl)Cl</t>
   </si>
   <si>
     <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/10.1016/j.jfluchem.2007.04.015 </t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)C1CCCCC1</t>
-  </si>
-  <si>
-    <t>RPTSLLGEWZGTHJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0040-4020(01)80530-5 </t>
-  </si>
-  <si>
-    <t>C1CCCCC1C#CC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>SCDHTAAYEHJTGD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)c1ccccc1</t>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>NDQOKFMZSIKVBG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(Cl)Cl</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(F)F</t>
+  </si>
+  <si>
+    <t>XHILZHAQBOLGFD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCC(C)=O</t>
+  </si>
+  <si>
+    <t>GMEONFUTDYJSNV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>OQHGRUHRHLFMBX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1CCCc2ccccc21</t>
+  </si>
+  <si>
+    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C#CC1CCCCC1</t>
+  </si>
+  <si>
+    <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)c(C(C)=O)c1</t>
+  </si>
+  <si>
+    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1cccc(C(C)=O)c1</t>
+  </si>
+  <si>
+    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCC(C)=O</t>
+  </si>
+  <si>
+    <t>ZPVFWPFBNIEHGJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>MKMFBYKRUQCCTG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>VUBUXALTYMBEQO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C#CC(C)=O</t>
+  </si>
+  <si>
+    <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>QXGIWMOPVOXYCX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1Br</t>
+  </si>
+  <si>
+    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(C)=O</t>
+  </si>
+  <si>
+    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)F</t>
+  </si>
+  <si>
+    <t>CDGZCBOPYKCCLD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)c1ccccc1C(C)=O</t>
+  </si>
+  <si>
+    <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>AMHOPTNGSNYSBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CBr)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CF)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YOMBUJAFGMOIGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)(F)F</t>
   </si>
   <si>
     <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>COc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(00)76780-3 </t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)C</t>
+    <t>CC(=O)c1ccc2ccccc2c1</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>JLQHDTDAQBOUBB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccc2ccccc2c1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>JWQLBVFFLIHXHA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)F</t>
+  </si>
+  <si>
+    <t>OLYKCPDTXVZOQF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(C)(C)C</t>
   </si>
   <si>
     <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ar00013a003 </t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCC(=O)OCC</t>
-  </si>
-  <si>
-    <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo025594y </t>
-  </si>
-  <si>
-    <t>c1cc(Br)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo00248a005 </t>
-  </si>
-  <si>
-    <t>C(=O)(CF)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>KXSOGUNMZUFDEV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC1(C)C(=O)CCC1</t>
-  </si>
-  <si>
-    <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)CCCCCCC</t>
-  </si>
-  <si>
-    <t>NDQOKFMZSIKVBG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCC</t>
-  </si>
-  <si>
-    <t>FFSAXUULYPJSKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ja00213a030 </t>
-  </si>
-  <si>
-    <t>COc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CBr)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>ONZQYZKCUHFORE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo00106a012 </t>
-  </si>
-  <si>
-    <t>C(=O)(C#Cc1ccccc1)C</t>
-  </si>
-  <si>
-    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(c(OC)c1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(97)00440-1 </t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)CC=C</t>
-  </si>
-  <si>
-    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Br)ccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t>SYWQQEVHZPPLNQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>QKLCQKPAECHXCQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
+    <t>COC(=O)c1cc(OC)cc(OC)c1C(C)=O</t>
   </si>
   <si>
     <t>LUWXCCCGOWDRJL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(C(=O)OC)cccc1)C</t>
-  </si>
-  <si>
-    <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(96)00260-2 </t>
-  </si>
-  <si>
-    <t>COc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
-  </si>
-  <si>
-    <t>JGUYBMKIKPABSY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)C</t>
-  </si>
-  <si>
-    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)C(F)(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t>MKMFBYKRUQCCTG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t>XAXKYUYIYBKVHR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
-  </si>
-  <si>
-    <t>MMUXSGDQWCOFKS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FCC(=O)C</t>
-  </si>
-  <si>
-    <t>MSWVMWGCNZQPIA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(Cl)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(95)00609-G </t>
-  </si>
-  <si>
-    <t>C(=O)(C#Cc1ccccc1)C(C)(C)C</t>
-  </si>
-  <si>
-    <t>QXGIWMOPVOXYCX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>s1cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)CCCCCCCC</t>
-  </si>
-  <si>
-    <t>OQHGRUHRHLFMBX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>VCARCPYEXCPAJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t>LKENTYLPIUIMFG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo00280a013 </t>
-  </si>
-  <si>
-    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
-  </si>
-  <si>
-    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ja00165a036 </t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)CC</t>
+    <t>CCC(=O)C#Cc1ccccc1</t>
   </si>
   <si>
     <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)c1ccccc1</t>
-  </si>
-  <si>
-    <t>UKYZDGAVBNKBPQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(=O)C</t>
-  </si>
-  <si>
-    <t>XXRCUYVCPSWGCC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(OC)cc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC1(C)C(=O)CCCC1</t>
-  </si>
-  <si>
-    <t>KNSPBSQWRKKAPI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C=CCCC1</t>
-  </si>
-  <si>
-    <t>FWFSEYBSWVRWGL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
-  </si>
-  <si>
-    <t>ZKJADHMQUMUECR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)[C@@]1(C)C(=O)CCC1</t>
-  </si>
-  <si>
-    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
-  </si>
-  <si>
-    <t>FC(F)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OLYKCPDTXVZOQF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCC2(=O)</t>
-  </si>
-  <si>
-    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C(=O)OCC)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FC(F)(F)C(=O)C</t>
-  </si>
-  <si>
-    <t>FHUDAMLDXFJHJE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>LISOVATZGSPQOC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)c1cc2ccccc2cc1</t>
-  </si>
-  <si>
-    <t>JWQLBVFFLIHXHA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(cc1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CF)C#CCCCC</t>
-  </si>
-  <si>
-    <t>RRJHAIWETICRET-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C(=O)OC)cccc1)CC</t>
-  </si>
-  <si>
-    <t>PJVVSYKDAYJZCV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)CCC</t>
-  </si>
-  <si>
-    <t>UYMHLXHLPQIDMA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCC(=O)OCC</t>
-  </si>
-  <si>
-    <t>BRUOEHVDTAORQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)C</t>
-  </si>
-  <si>
-    <t>ZWEHNKRNPOVVGH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C#CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
-  </si>
-  <si>
-    <t>QRJXIADOTSHIRY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1/C=C/C(=O)C</t>
-  </si>
-  <si>
-    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(C)(C)C(=O)C#CCCCCCCCC</t>
-  </si>
-  <si>
-    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C(F)(F)F)c1c(cccc2)c2cc3c1cccc3</t>
-  </si>
-  <si>
-    <t>MNCMBBIFTVWHIP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CCC(=O)C</t>
-  </si>
-  <si>
-    <t>GMEONFUTDYJSNV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FC(F)C(=O)C</t>
-  </si>
-  <si>
-    <t>XHILZHAQBOLGFD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(c1)cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)C(F)(F)F)c1ccccc1</t>
-  </si>
-  <si>
-    <t>VUBUXALTYMBEQO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>JLQHDTDAQBOUBB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCC(=O)C</t>
-  </si>
-  <si>
-    <t>ZPVFWPFBNIEHGJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>PWFHYGISSIMQKI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)F)c1c2ccccc2ccc1</t>
-  </si>
-  <si>
-    <t>VQCWOGKZDGCRES-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>BrCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Cl)ccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCC12C(=O)CCC2</t>
-  </si>
-  <si>
-    <t>QRYJGVNQNLCGGZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCCCCCCC</t>
-  </si>
-  <si>
-    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YOMBUJAFGMOIGS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)CC</t>
-  </si>
-  <si>
-    <t>AMHOPTNGSNYSBL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t>DPQDBEUDQJLCFS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t>CDGZCBOPYKCCLD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C#CC(=O)C</t>
-  </si>
-  <si>
-    <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C(=O)OC)cccc1)CCCC</t>
-  </si>
-  <si>
-    <t>QTUYJWKFWYJIOM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1c2ccccc2ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Brc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C(=O)OC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>NQSMEZJWJJVYOI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="2" spans="1:9" ht="100" customHeight="1">
       <c r="A2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -5182,13 +5182,13 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>89.5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G2">
-        <v>-1.270760834560941</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="3" spans="1:9" ht="100" customHeight="1">
       <c r="A3">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -5208,13 +5208,13 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="F3">
         <v>0.49352</v>
       </c>
       <c r="G3">
-        <v>2.267783548438423</v>
+        <v>1.112422729872089</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="4" spans="1:9" ht="100" customHeight="1">
       <c r="A4">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5234,16 +5234,16 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F4">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="G4">
-        <v>1.781307333383719</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5251,25 +5251,25 @@
     </row>
     <row r="5" spans="1:9" ht="100" customHeight="1">
       <c r="A5">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5">
-        <v>6.5</v>
+        <v>57.5</v>
       </c>
       <c r="F5">
         <v>0.59302</v>
       </c>
       <c r="G5">
-        <v>1.581085764005266</v>
+        <v>-0.1792586026380871</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5277,25 +5277,25 @@
     </row>
     <row r="6" spans="1:9" ht="100" customHeight="1">
       <c r="A6">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>94.5</v>
+      </c>
+      <c r="F6">
+        <v>0.38805</v>
+      </c>
+      <c r="G6">
+        <v>-1.103556668584487</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6">
-        <v>69.5</v>
-      </c>
-      <c r="F6">
-        <v>0.49352</v>
-      </c>
-      <c r="G6">
-        <v>-0.4064631060318465</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5303,25 +5303,25 @@
     </row>
     <row r="7" spans="1:9" ht="100" customHeight="1">
       <c r="A7">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>0.49352</v>
+      </c>
+      <c r="G7">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0.59302</v>
-      </c>
-      <c r="G7">
-        <v>1.746111203425282</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="8" spans="1:9" ht="100" customHeight="1">
       <c r="A8">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -5338,13 +5338,13 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0.49352</v>
       </c>
       <c r="G8">
-        <v>1.715524225407504</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="9" spans="1:9" ht="100" customHeight="1">
       <c r="A9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5364,16 +5364,16 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.49352</v>
       </c>
       <c r="G9">
-        <v>1.808040943597903</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5381,25 +5381,25 @@
     </row>
     <row r="10" spans="1:9" ht="100" customHeight="1">
       <c r="A10">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="F10">
         <v>0.49352</v>
       </c>
       <c r="G10">
-        <v>2.267783548438423</v>
+        <v>0.6997337386092292</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -5407,25 +5407,25 @@
     </row>
     <row r="11" spans="1:9" ht="100" customHeight="1">
       <c r="A11">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0.49352</v>
       </c>
       <c r="G11">
-        <v>2.065179567503287</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5433,25 +5433,25 @@
     </row>
     <row r="12" spans="1:9" ht="100" customHeight="1">
       <c r="A12">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.49352</v>
+      </c>
+      <c r="G12">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
-      </c>
-      <c r="E12">
-        <v>64</v>
-      </c>
-      <c r="F12">
-        <v>0.59302</v>
-      </c>
-      <c r="G12">
-        <v>-0.3412024452107102</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="13" spans="1:9" ht="100" customHeight="1">
       <c r="A13">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -5468,16 +5468,16 @@
         <v>41</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="F13">
         <v>0.49352</v>
       </c>
       <c r="G13">
-        <v>2.267783548438423</v>
+        <v>2.320279323575566</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5488,10 +5488,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -5503,7 +5503,7 @@
         <v>0.3273489621763137</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5511,25 +5511,25 @@
     </row>
     <row r="15" spans="1:9" ht="100" customHeight="1">
       <c r="A15">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F15">
         <v>0.59302</v>
       </c>
       <c r="G15">
-        <v>1.884649482472939</v>
+        <v>3.139035627158119</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5537,25 +5537,25 @@
     </row>
     <row r="16" spans="1:9" ht="100" customHeight="1">
       <c r="A16">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>0.899999999999999</v>
+        <v>98</v>
       </c>
       <c r="F16">
         <v>0.49352</v>
       </c>
       <c r="G16">
-        <v>2.320279323575566</v>
+        <v>-1.920691153523556</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="17" spans="1:9" ht="100" customHeight="1">
       <c r="A17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -5572,16 +5572,16 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>0.54327</v>
+        <v>0.59302</v>
       </c>
       <c r="G17">
-        <v>1.801907092249077</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="18" spans="1:9" ht="100" customHeight="1">
       <c r="A18">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -5598,16 +5598,16 @@
         <v>52</v>
       </c>
       <c r="E18">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0.49352</v>
       </c>
       <c r="G18">
-        <v>-1.920691153523556</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5615,25 +5615,25 @@
     </row>
     <row r="19" spans="1:9" ht="100" customHeight="1">
       <c r="A19">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
       <c r="E19">
-        <v>60.5</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G19">
-        <v>-0.2528297438797862</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5641,25 +5641,25 @@
     </row>
     <row r="20" spans="1:9" ht="100" customHeight="1">
       <c r="A20">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F20">
         <v>0.49352</v>
       </c>
       <c r="G20">
-        <v>1.715524225407504</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5667,25 +5667,25 @@
     </row>
     <row r="21" spans="1:9" ht="100" customHeight="1">
       <c r="A21">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0.59302</v>
+      </c>
+      <c r="G21">
+        <v>1.372031785702698</v>
+      </c>
+      <c r="H21" t="s">
         <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21">
-        <v>98</v>
-      </c>
-      <c r="F21">
-        <v>0.49352</v>
-      </c>
-      <c r="G21">
-        <v>-1.920691153523556</v>
-      </c>
-      <c r="H21" t="s">
-        <v>31</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5693,25 +5693,25 @@
     </row>
     <row r="22" spans="1:9" ht="100" customHeight="1">
       <c r="A22">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F22">
         <v>0.49352</v>
       </c>
       <c r="G22">
-        <v>1.715524225407504</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="23" spans="1:9" ht="100" customHeight="1">
       <c r="A23">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
@@ -5728,16 +5728,16 @@
         <v>64</v>
       </c>
       <c r="E23">
-        <v>97.5</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0.49352</v>
       </c>
       <c r="G23">
-        <v>-1.808040943597905</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="24" spans="1:9" ht="100" customHeight="1">
       <c r="A24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -5754,16 +5754,16 @@
         <v>66</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="F24">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G24">
-        <v>2.267783548438423</v>
+        <v>1.581085764005266</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="25" spans="1:9" ht="100" customHeight="1">
       <c r="A25">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -5780,16 +5780,16 @@
         <v>68</v>
       </c>
       <c r="E25">
-        <v>94.5</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="F25">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="G25">
-        <v>-1.103556668584487</v>
+        <v>-1.06547349528128</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="26" spans="1:9" ht="100" customHeight="1">
       <c r="A26">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -5806,16 +5806,16 @@
         <v>70</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>0.49352</v>
       </c>
       <c r="G26">
-        <v>2.065179567503287</v>
+        <v>-0.2001051401535412</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="27" spans="1:9" ht="100" customHeight="1">
       <c r="A27">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
@@ -5832,13 +5832,13 @@
         <v>72</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G27">
-        <v>0.2001051401535413</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="28" spans="1:9" ht="100" customHeight="1">
       <c r="A28">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -5858,16 +5858,16 @@
         <v>74</v>
       </c>
       <c r="E28">
-        <v>1.5</v>
+        <v>99.5</v>
       </c>
       <c r="F28">
         <v>0.49352</v>
       </c>
       <c r="G28">
-        <v>2.065179567503287</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5875,25 +5875,25 @@
     </row>
     <row r="29" spans="1:9" ht="100" customHeight="1">
       <c r="A29">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
       <c r="E29">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>0.49352</v>
       </c>
       <c r="G29">
-        <v>1.808040943597903</v>
+        <v>1.453139524998222</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5901,25 +5901,25 @@
     </row>
     <row r="30" spans="1:9" ht="100" customHeight="1">
       <c r="A30">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
         <v>78</v>
       </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
       <c r="E30">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>0.49352</v>
       </c>
       <c r="G30">
-        <v>2.267783548438423</v>
+        <v>-1.920691153523556</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="31" spans="1:9" ht="100" customHeight="1">
       <c r="A31">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>80</v>
@@ -5936,16 +5936,16 @@
         <v>81</v>
       </c>
       <c r="E31">
-        <v>59</v>
+        <v>4.35</v>
       </c>
       <c r="F31">
         <v>0.49352</v>
       </c>
       <c r="G31">
-        <v>-0.1796241929564407</v>
+        <v>1.525233356759743</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="32" spans="1:9" ht="100" customHeight="1">
       <c r="A32">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>82</v>
@@ -5962,16 +5962,16 @@
         <v>83</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G32">
-        <v>2.307927273185564</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="33" spans="1:9" ht="100" customHeight="1">
       <c r="A33">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
@@ -5988,16 +5988,16 @@
         <v>85</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>27.5</v>
       </c>
       <c r="F33">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G33">
-        <v>3.139035627158119</v>
+        <v>0.4784185629834729</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6005,25 +6005,25 @@
     </row>
     <row r="34" spans="1:9" ht="100" customHeight="1">
       <c r="A34">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E34">
-        <v>99.5</v>
+        <v>64</v>
       </c>
       <c r="F34">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G34">
-        <v>-2.61235179709804</v>
+        <v>-0.3412024452107102</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6031,25 +6031,25 @@
     </row>
     <row r="35" spans="1:9" ht="100" customHeight="1">
       <c r="A35">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G35">
-        <v>1.453139524998222</v>
+        <v>2.307927273185564</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="36" spans="1:9" ht="100" customHeight="1">
       <c r="A36">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E36">
-        <v>19.5</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="G36">
-        <v>0.6997337386092292</v>
+        <v>2.269203661219363</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6083,25 +6083,25 @@
     </row>
     <row r="37" spans="1:9" ht="100" customHeight="1">
       <c r="A37">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E37">
-        <v>57.5</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>0.59302</v>
       </c>
       <c r="G37">
-        <v>-0.1792586026380871</v>
+        <v>1.448360638914646</v>
       </c>
       <c r="H37" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6109,25 +6109,25 @@
     </row>
     <row r="38" spans="1:9" ht="100" customHeight="1">
       <c r="A38">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38">
-        <v>99.5</v>
+        <v>64</v>
       </c>
       <c r="F38">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G38">
-        <v>-2.61235179709804</v>
+        <v>-0.3412024452107102</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -6135,25 +6135,25 @@
     </row>
     <row r="39" spans="1:9" ht="100" customHeight="1">
       <c r="A39">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E39">
-        <v>4.35</v>
+        <v>57.5</v>
       </c>
       <c r="F39">
         <v>0.49352</v>
       </c>
       <c r="G39">
-        <v>1.525233356759743</v>
+        <v>-0.1491816558867302</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -6161,25 +6161,25 @@
     </row>
     <row r="40" spans="1:9" ht="100" customHeight="1">
       <c r="A40">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F40">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G40">
-        <v>1.811705069448287</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -6187,25 +6187,25 @@
     </row>
     <row r="41" spans="1:9" ht="100" customHeight="1">
       <c r="A41">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F41">
         <v>0.59302</v>
       </c>
       <c r="G41">
-        <v>2.307927273185564</v>
+        <v>0.4744867473524853</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -6213,25 +6213,25 @@
     </row>
     <row r="42" spans="1:9" ht="100" customHeight="1">
       <c r="A42">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42">
-        <v>27.5</v>
+        <v>76.5</v>
       </c>
       <c r="F42">
         <v>0.49352</v>
       </c>
       <c r="G42">
-        <v>0.4784185629834729</v>
+        <v>-0.5824968785696466</v>
       </c>
       <c r="H42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -6239,25 +6239,25 @@
     </row>
     <row r="43" spans="1:9" ht="100" customHeight="1">
       <c r="A43">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>96.5</v>
       </c>
       <c r="F43">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="G43">
-        <v>2.269203661219363</v>
+        <v>-1.636897285266562</v>
       </c>
       <c r="H43" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="44" spans="1:9" ht="100" customHeight="1">
       <c r="A44">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>109</v>
@@ -6274,16 +6274,16 @@
         <v>110</v>
       </c>
       <c r="E44">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="G44">
-        <v>-0.2839537127928058</v>
+        <v>0.8978060342685438</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="45" spans="1:9" ht="100" customHeight="1">
       <c r="A45">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
         <v>111</v>
@@ -6300,16 +6300,16 @@
         <v>112</v>
       </c>
       <c r="E45">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="F45">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G45">
-        <v>1.581085764005266</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="46" spans="1:9" ht="100" customHeight="1">
       <c r="A46">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -6326,16 +6326,16 @@
         <v>114</v>
       </c>
       <c r="E46">
-        <v>96.5</v>
+        <v>6.5</v>
       </c>
       <c r="F46">
         <v>0.49352</v>
       </c>
       <c r="G46">
-        <v>-1.636897285266562</v>
+        <v>1.315802917695658</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="47" spans="1:9" ht="100" customHeight="1">
       <c r="A47">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>115</v>
@@ -6352,16 +6352,16 @@
         <v>116</v>
       </c>
       <c r="E47">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="G47">
-        <v>-1.23324378886652</v>
+        <v>1.920691153523556</v>
       </c>
       <c r="H47" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="48" spans="1:9" ht="100" customHeight="1">
       <c r="A48">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -6378,16 +6378,16 @@
         <v>118</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="G48">
-        <v>0.8978060342685438</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="49" spans="1:9" ht="100" customHeight="1">
       <c r="A49">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -6404,16 +6404,16 @@
         <v>120</v>
       </c>
       <c r="E49">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F49">
         <v>0.49352</v>
       </c>
       <c r="G49">
-        <v>2.065179567503287</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="50" spans="1:9" ht="100" customHeight="1">
       <c r="A50">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -6430,16 +6430,16 @@
         <v>122</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>60.5</v>
       </c>
       <c r="F50">
         <v>0.49352</v>
       </c>
       <c r="G50">
-        <v>1.920691153523556</v>
+        <v>-0.2104086459133792</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="51" spans="1:9" ht="100" customHeight="1">
       <c r="A51">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -6456,16 +6456,16 @@
         <v>124</v>
       </c>
       <c r="E51">
-        <v>60</v>
+        <v>97.5</v>
       </c>
       <c r="F51">
         <v>0.49352</v>
       </c>
       <c r="G51">
-        <v>-0.2001051401535412</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="H51" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="52" spans="1:9" ht="100" customHeight="1">
       <c r="A52">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -6482,16 +6482,16 @@
         <v>126</v>
       </c>
       <c r="E52">
-        <v>4.5</v>
+        <v>99.5</v>
       </c>
       <c r="F52">
         <v>0.49352</v>
       </c>
       <c r="G52">
-        <v>1.507727708802602</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="53" spans="1:9" ht="100" customHeight="1">
       <c r="A53">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
         <v>127</v>
@@ -6508,16 +6508,16 @@
         <v>128</v>
       </c>
       <c r="E53">
-        <v>32</v>
+        <v>3.5</v>
       </c>
       <c r="F53">
         <v>0.49352</v>
       </c>
       <c r="G53">
-        <v>0.3720014599087912</v>
+        <v>1.636897285266561</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="54" spans="1:9" ht="100" customHeight="1">
       <c r="A54">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
@@ -6534,16 +6534,16 @@
         <v>130</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F54">
         <v>0.49352</v>
       </c>
       <c r="G54">
-        <v>2.267783548438423</v>
+        <v>-0.1796241929564407</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="55" spans="1:9" ht="100" customHeight="1">
       <c r="A55">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>131</v>
@@ -6560,16 +6560,16 @@
         <v>132</v>
       </c>
       <c r="E55">
-        <v>99.5</v>
+        <v>50</v>
       </c>
       <c r="F55">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G55">
-        <v>-2.61235179709804</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="56" spans="1:9" ht="100" customHeight="1">
       <c r="A56">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -6586,16 +6586,16 @@
         <v>134</v>
       </c>
       <c r="E56">
-        <v>3.5</v>
+        <v>69.5</v>
       </c>
       <c r="F56">
         <v>0.49352</v>
       </c>
       <c r="G56">
-        <v>1.636897285266561</v>
+        <v>-0.4064631060318465</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="57" spans="1:9" ht="100" customHeight="1">
       <c r="A57">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
@@ -6612,16 +6612,16 @@
         <v>136</v>
       </c>
       <c r="E57">
-        <v>92.5</v>
+        <v>1.3</v>
       </c>
       <c r="F57">
         <v>0.49352</v>
       </c>
       <c r="G57">
-        <v>-1.239873071544692</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="58" spans="1:9" ht="100" customHeight="1">
       <c r="A58">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
@@ -6638,16 +6638,16 @@
         <v>138</v>
       </c>
       <c r="E58">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G58">
-        <v>-0.3412024452107102</v>
+        <v>1.141825110249225</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="59" spans="1:9" ht="100" customHeight="1">
       <c r="A59">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
         <v>139</v>
@@ -6664,16 +6664,16 @@
         <v>140</v>
       </c>
       <c r="E59">
-        <v>76.5</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="G59">
-        <v>-0.5824968785696466</v>
+        <v>2.269203661219363</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="60" spans="1:9" ht="100" customHeight="1">
       <c r="A60">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
         <v>141</v>
@@ -6690,16 +6690,16 @@
         <v>142</v>
       </c>
       <c r="E60">
-        <v>1.3</v>
+        <v>73</v>
       </c>
       <c r="F60">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G60">
-        <v>2.136803750966794</v>
+        <v>-0.5898310795119318</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="61" spans="1:9" ht="100" customHeight="1">
       <c r="A61">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
@@ -6716,16 +6716,16 @@
         <v>144</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="F61">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G61">
-        <v>1.141825110249225</v>
+        <v>1.581085764005266</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="62" spans="1:9" ht="100" customHeight="1">
       <c r="A62">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>145</v>
@@ -6742,16 +6742,16 @@
         <v>146</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="F62">
-        <v>0.58307</v>
+        <v>0.38805</v>
       </c>
       <c r="G62">
-        <v>2.269203661219363</v>
+        <v>-1.23324378886652</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="63" spans="1:9" ht="100" customHeight="1">
       <c r="A63">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
         <v>147</v>
@@ -6768,16 +6768,16 @@
         <v>148</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F63">
         <v>0.49352</v>
       </c>
       <c r="G63">
-        <v>2.267783548438423</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="64" spans="1:9" ht="100" customHeight="1">
       <c r="A64">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
         <v>149</v>
@@ -6794,16 +6794,16 @@
         <v>150</v>
       </c>
       <c r="E64">
-        <v>4.5</v>
+        <v>65</v>
       </c>
       <c r="F64">
         <v>0.59302</v>
       </c>
       <c r="G64">
-        <v>1.811705069448287</v>
+        <v>-0.3671026313690585</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="65" spans="1:9" ht="100" customHeight="1">
       <c r="A65">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
         <v>151</v>
@@ -6820,16 +6820,16 @@
         <v>152</v>
       </c>
       <c r="E65">
-        <v>6.5</v>
+        <v>31</v>
       </c>
       <c r="F65">
         <v>0.49352</v>
       </c>
       <c r="G65">
-        <v>1.315802917695658</v>
+        <v>0.3948748769913301</v>
       </c>
       <c r="H65" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="66" spans="1:9" ht="100" customHeight="1">
       <c r="A66">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
         <v>153</v>
@@ -6846,16 +6846,16 @@
         <v>154</v>
       </c>
       <c r="E66">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G66">
-        <v>-0.5898310795119318</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="67" spans="1:9" ht="100" customHeight="1">
       <c r="A67">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>155</v>
@@ -6872,16 +6872,16 @@
         <v>156</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F67">
         <v>0.49352</v>
       </c>
       <c r="G67">
-        <v>2.267783548438423</v>
+        <v>0.03950267709104377</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="68" spans="1:9" ht="100" customHeight="1">
       <c r="A68">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>157</v>
@@ -6898,16 +6898,16 @@
         <v>158</v>
       </c>
       <c r="E68">
-        <v>31</v>
+        <v>1.35</v>
       </c>
       <c r="F68">
         <v>0.49352</v>
       </c>
       <c r="G68">
-        <v>0.3948748769913301</v>
+        <v>2.117928070821825</v>
       </c>
       <c r="H68" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="69" spans="1:9" ht="100" customHeight="1">
       <c r="A69">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
         <v>159</v>
@@ -6924,16 +6924,16 @@
         <v>160</v>
       </c>
       <c r="E69">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G69">
-        <v>2.612351797098031</v>
+        <v>1.239851285303664</v>
       </c>
       <c r="H69" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="70" spans="1:9" ht="100" customHeight="1">
       <c r="A70">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
         <v>161</v>
@@ -6950,16 +6950,16 @@
         <v>162</v>
       </c>
       <c r="E70">
-        <v>48</v>
+        <v>99.5</v>
       </c>
       <c r="F70">
         <v>0.49352</v>
       </c>
       <c r="G70">
-        <v>0.03950267709104377</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="71" spans="1:9" ht="100" customHeight="1">
       <c r="A71">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
         <v>163</v>
@@ -6976,16 +6976,16 @@
         <v>164</v>
       </c>
       <c r="E71">
-        <v>1.35</v>
+        <v>32</v>
       </c>
       <c r="F71">
         <v>0.49352</v>
       </c>
       <c r="G71">
-        <v>2.117928070821825</v>
+        <v>0.3720014599087912</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="72" spans="1:9" ht="100" customHeight="1">
       <c r="A72">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
         <v>165</v>
@@ -7002,16 +7002,16 @@
         <v>166</v>
       </c>
       <c r="E72">
-        <v>98.5</v>
+        <v>4.5</v>
       </c>
       <c r="F72">
-        <v>0.58904</v>
+        <v>0.58307</v>
       </c>
       <c r="G72">
-        <v>-2.464891741858764</v>
+        <v>1.781307333383719</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="73" spans="1:9" ht="100" customHeight="1">
       <c r="A73">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
         <v>167</v>
@@ -7028,16 +7028,16 @@
         <v>168</v>
       </c>
       <c r="E73">
-        <v>99.5</v>
+        <v>1.5</v>
       </c>
       <c r="F73">
         <v>0.49352</v>
       </c>
       <c r="G73">
-        <v>-2.61235179709804</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="74" spans="1:9" ht="100" customHeight="1">
       <c r="A74">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
         <v>169</v>
@@ -7054,16 +7054,16 @@
         <v>170</v>
       </c>
       <c r="E74">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G74">
-        <v>1.112422729872089</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="75" spans="1:9" ht="100" customHeight="1">
       <c r="A75">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>171</v>
@@ -7080,16 +7080,16 @@
         <v>172</v>
       </c>
       <c r="E75">
-        <v>57.5</v>
+        <v>91</v>
       </c>
       <c r="F75">
         <v>0.49352</v>
       </c>
       <c r="G75">
-        <v>-0.1491816558867302</v>
+        <v>-1.141825110249225</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="76" spans="1:9" ht="100" customHeight="1">
       <c r="A76">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
         <v>173</v>
@@ -7106,16 +7106,16 @@
         <v>174</v>
       </c>
       <c r="E76">
-        <v>1.5</v>
+        <v>52.5</v>
       </c>
       <c r="F76">
         <v>0.49352</v>
       </c>
       <c r="G76">
-        <v>2.065179567503287</v>
+        <v>-0.04939318846704208</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="77" spans="1:9" ht="100" customHeight="1">
       <c r="A77">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
         <v>175</v>
@@ -7132,16 +7132,16 @@
         <v>176</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>63.5</v>
       </c>
       <c r="F77">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G77">
-        <v>1.372031785702698</v>
+        <v>-0.2732756675134899</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="78" spans="1:9" ht="100" customHeight="1">
       <c r="A78">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
         <v>177</v>
@@ -7158,16 +7158,16 @@
         <v>178</v>
       </c>
       <c r="E78">
-        <v>63.5</v>
+        <v>4.5</v>
       </c>
       <c r="F78">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G78">
-        <v>-0.2732756675134899</v>
+        <v>1.811705069448287</v>
       </c>
       <c r="H78" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="79" spans="1:9" ht="100" customHeight="1">
       <c r="A79">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>179</v>
@@ -7184,16 +7184,16 @@
         <v>180</v>
       </c>
       <c r="E79">
-        <v>52.5</v>
+        <v>6.3</v>
       </c>
       <c r="F79">
         <v>0.49352</v>
       </c>
       <c r="G79">
-        <v>-0.04939318846704208</v>
+        <v>1.332281203281557</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="80" spans="1:9" ht="100" customHeight="1">
       <c r="A80">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
         <v>181</v>
@@ -7210,16 +7210,16 @@
         <v>182</v>
       </c>
       <c r="E80">
-        <v>2.5</v>
+        <v>98.5</v>
       </c>
       <c r="F80">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="G80">
-        <v>1.808040943597903</v>
+        <v>-2.464891741858764</v>
       </c>
       <c r="H80" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="81" spans="1:9" ht="100" customHeight="1">
       <c r="A81">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>183</v>
@@ -7236,16 +7236,16 @@
         <v>184</v>
       </c>
       <c r="E81">
-        <v>91</v>
+        <v>3.5</v>
       </c>
       <c r="F81">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="G81">
-        <v>-1.141825110249225</v>
+        <v>1.801907092249077</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="82" spans="1:9" ht="100" customHeight="1">
       <c r="A82">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
         <v>185</v>
@@ -7262,16 +7262,16 @@
         <v>186</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F82">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G82">
-        <v>1.884649482472939</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="83" spans="1:9" ht="100" customHeight="1">
       <c r="A83">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
         <v>187</v>
@@ -7288,16 +7288,16 @@
         <v>188</v>
       </c>
       <c r="E83">
-        <v>6.3</v>
+        <v>53.5</v>
       </c>
       <c r="F83">
         <v>0.49352</v>
       </c>
       <c r="G83">
-        <v>1.332281203281557</v>
+        <v>-0.06920598452264508</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="84" spans="1:9" ht="100" customHeight="1">
       <c r="A84">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
         <v>189</v>
@@ -7314,16 +7314,16 @@
         <v>190</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>0.59302</v>
       </c>
       <c r="G84">
-        <v>2.061396045046114</v>
+        <v>2.307927273185564</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="85" spans="1:9" ht="100" customHeight="1">
       <c r="A85">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
         <v>191</v>
@@ -7340,16 +7340,16 @@
         <v>192</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F85">
         <v>0.59302</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="86" spans="1:9" ht="100" customHeight="1">
       <c r="A86">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
         <v>193</v>
@@ -7366,16 +7366,16 @@
         <v>194</v>
       </c>
       <c r="E86">
-        <v>4.5</v>
+        <v>58.5</v>
       </c>
       <c r="F86">
         <v>0.49352</v>
       </c>
       <c r="G86">
-        <v>1.507727708802602</v>
+        <v>-0.1694418635416117</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="87" spans="1:9" ht="100" customHeight="1">
       <c r="A87">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
         <v>195</v>
@@ -7392,24 +7392,24 @@
         <v>196</v>
       </c>
       <c r="E87">
-        <v>53.5</v>
+        <v>99.5</v>
       </c>
       <c r="F87">
         <v>0.49352</v>
       </c>
       <c r="G87">
-        <v>-0.06920598452264508</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="100" customHeight="1">
       <c r="A88">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
         <v>197</v>
@@ -7418,24 +7418,24 @@
         <v>198</v>
       </c>
       <c r="E88">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G88">
-        <v>0.4744867473524853</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="100" customHeight="1">
       <c r="A89">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B89" t="s">
         <v>199</v>
@@ -7444,24 +7444,24 @@
         <v>200</v>
       </c>
       <c r="E89">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="F89">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G89">
-        <v>1.239851285303664</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="100" customHeight="1">
       <c r="A90">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
         <v>201</v>
@@ -7470,16 +7470,16 @@
         <v>202</v>
       </c>
       <c r="E90">
-        <v>93</v>
+        <v>1.5</v>
       </c>
       <c r="F90">
         <v>0.49352</v>
       </c>
       <c r="G90">
-        <v>-1.276582925099217</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H90" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="91" spans="1:9" ht="100" customHeight="1">
       <c r="A91">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
         <v>203</v>
@@ -7496,16 +7496,16 @@
         <v>204</v>
       </c>
       <c r="E91">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F91">
         <v>0.49352</v>
       </c>
       <c r="G91">
-        <v>2.065179567503287</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="H91" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="92" spans="1:9" ht="100" customHeight="1">
       <c r="A92">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
         <v>205</v>
@@ -7522,16 +7522,16 @@
         <v>206</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>42.5</v>
       </c>
       <c r="F92">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G92">
-        <v>2.267783548438423</v>
+        <v>0.1792586026380871</v>
       </c>
       <c r="H92" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="93" spans="1:9" ht="100" customHeight="1">
       <c r="A93">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
         <v>207</v>
@@ -7548,16 +7548,16 @@
         <v>208</v>
       </c>
       <c r="E93">
-        <v>37</v>
+        <v>1.5</v>
       </c>
       <c r="F93">
         <v>0.49352</v>
       </c>
       <c r="G93">
-        <v>0.2626596419205716</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H93" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="94" spans="1:9" ht="100" customHeight="1">
       <c r="A94">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
@@ -7574,16 +7574,16 @@
         <v>210</v>
       </c>
       <c r="E94">
-        <v>2.5</v>
+        <v>38.5</v>
       </c>
       <c r="F94">
         <v>0.49352</v>
       </c>
       <c r="G94">
-        <v>1.808040943597903</v>
+        <v>0.2311543712701654</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="95" spans="1:9" ht="100" customHeight="1">
       <c r="A95">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
         <v>211</v>
@@ -7600,16 +7600,16 @@
         <v>212</v>
       </c>
       <c r="E95">
-        <v>2.5</v>
+        <v>93</v>
       </c>
       <c r="F95">
         <v>0.49352</v>
       </c>
       <c r="G95">
-        <v>1.808040943597903</v>
+        <v>-1.276582925099217</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="96" spans="1:9" ht="100" customHeight="1">
       <c r="A96">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
         <v>213</v>
@@ -7635,7 +7635,7 @@
         <v>-1.808040943597905</v>
       </c>
       <c r="H96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="97" spans="1:9" ht="100" customHeight="1">
       <c r="A97">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
         <v>215</v>
@@ -7652,16 +7652,16 @@
         <v>216</v>
       </c>
       <c r="E97">
-        <v>97.5</v>
+        <v>5</v>
       </c>
       <c r="F97">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="G97">
-        <v>-1.808040943597905</v>
+        <v>1.716814035582576</v>
       </c>
       <c r="H97" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="98" spans="1:9" ht="100" customHeight="1">
       <c r="A98">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
         <v>217</v>
@@ -7678,16 +7678,16 @@
         <v>218</v>
       </c>
       <c r="E98">
-        <v>38.5</v>
+        <v>0.950000000000003</v>
       </c>
       <c r="F98">
         <v>0.49352</v>
       </c>
       <c r="G98">
-        <v>0.2311543712701654</v>
+        <v>2.293347004688446</v>
       </c>
       <c r="H98" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="99" spans="1:9" ht="100" customHeight="1">
       <c r="A99">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
         <v>219</v>
@@ -7704,16 +7704,16 @@
         <v>220</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99">
         <v>0.59302</v>
       </c>
       <c r="G99">
-        <v>1.884649482472939</v>
+        <v>2.061396045046114</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="100" spans="1:9" ht="100" customHeight="1">
       <c r="A100">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
         <v>221</v>
@@ -7730,16 +7730,16 @@
         <v>222</v>
       </c>
       <c r="E100">
-        <v>42.5</v>
+        <v>37</v>
       </c>
       <c r="F100">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G100">
-        <v>0.1792586026380871</v>
+        <v>0.2626596419205716</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="101" spans="1:9" ht="100" customHeight="1">
       <c r="A101">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
         <v>223</v>
@@ -7756,16 +7756,16 @@
         <v>224</v>
       </c>
       <c r="E101">
-        <v>58.5</v>
+        <v>2.5</v>
       </c>
       <c r="F101">
         <v>0.49352</v>
       </c>
       <c r="G101">
-        <v>-0.1694418635416117</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="102" spans="1:9" ht="100" customHeight="1">
       <c r="A102">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
         <v>225</v>
@@ -7782,16 +7782,16 @@
         <v>226</v>
       </c>
       <c r="E102">
-        <v>0.5</v>
+        <v>99</v>
       </c>
       <c r="F102">
         <v>0.49352</v>
       </c>
       <c r="G102">
-        <v>2.612351797098031</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H102" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="103" spans="1:9" ht="100" customHeight="1">
       <c r="A103">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
         <v>227</v>
@@ -7808,16 +7808,16 @@
         <v>228</v>
       </c>
       <c r="E103">
-        <v>0.950000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="F103">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="G103">
-        <v>2.293347004688446</v>
+        <v>1.811705069448287</v>
       </c>
       <c r="H103" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="104" spans="1:9" ht="100" customHeight="1">
       <c r="A104">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
         <v>229</v>
@@ -7834,16 +7834,16 @@
         <v>230</v>
       </c>
       <c r="E104">
-        <v>8</v>
+        <v>92.5</v>
       </c>
       <c r="F104">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G104">
-        <v>1.448360638914646</v>
+        <v>-1.239873071544692</v>
       </c>
       <c r="H104" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="105" spans="1:9" ht="100" customHeight="1">
       <c r="A105">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
         <v>231</v>
@@ -7860,16 +7860,16 @@
         <v>232</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>2.5</v>
       </c>
       <c r="F105">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H105" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="106" spans="1:9" ht="100" customHeight="1">
       <c r="A106">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
         <v>233</v>
@@ -7886,16 +7886,16 @@
         <v>234</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>40</v>
       </c>
       <c r="F106">
         <v>0.49352</v>
       </c>
       <c r="G106">
-        <v>2.612351797098031</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="H106" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="107" spans="1:9" ht="100" customHeight="1">
       <c r="A107">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B107" t="s">
         <v>235</v>
@@ -7912,16 +7912,16 @@
         <v>236</v>
       </c>
       <c r="E107">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F107">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="G107">
-        <v>-0.3671026313690585</v>
+        <v>-0.2839537127928058</v>
       </c>
       <c r="H107" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -7929,7 +7929,7 @@
     </row>
     <row r="108" spans="1:9" ht="100" customHeight="1">
       <c r="A108">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
         <v>237</v>
@@ -7938,16 +7938,16 @@
         <v>238</v>
       </c>
       <c r="E108">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="F108">
         <v>0.49352</v>
       </c>
       <c r="G108">
-        <v>-2.26778354843842</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="H108" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I108">
         <v>1</v>

--- a/arranged_dataset/DIP.xlsx
+++ b/arranged_dataset/DIP.xlsx
@@ -28,12 +28,12 @@
     <t>InChIKey</t>
   </si>
   <si>
+    <t>temperature</t>
+  </si>
+  <si>
     <t>er.</t>
   </si>
   <si>
-    <t>RT</t>
-  </si>
-  <si>
     <t>ΔΔG.expt.</t>
   </si>
   <si>
@@ -43,46 +43,604 @@
     <t>test</t>
   </si>
   <si>
+    <t>O=C(CBr)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>ONZQYZKCUHFORE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo00106a012 </t>
+  </si>
+  <si>
+    <t>COc1cccc(OC)c1C(C)=O</t>
+  </si>
+  <si>
+    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(00)76780-3 </t>
+  </si>
+  <si>
+    <t>O=C(CCCl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo00248a005 </t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>VUBUXALTYMBEQO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0040-4020(01)80530-5 </t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/ar00013a003 </t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>QXGIWMOPVOXYCX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0957-4166(94)80056-1 </t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>XAXKYUYIYBKVHR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>MKMFBYKRUQCCTG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/ja00213a030 </t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
+  </si>
+  <si>
+    <t>QRJXIADOTSHIRY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)c1ccccc1C(C)=O</t>
+  </si>
+  <si>
+    <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(96)00260-2 </t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>LISOVATZGSPQOC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)c1cc(OC)cc(OC)c1C(C)=O</t>
+  </si>
+  <si>
+    <t>LUWXCCCGOWDRJL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1cc(OC)ccc1OC</t>
+  </si>
+  <si>
+    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)CF</t>
+  </si>
+  <si>
+    <t>KXSOGUNMZUFDEV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)F</t>
+  </si>
+  <si>
+    <t>PWFHYGISSIMQKI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccccc1C(=O)OC</t>
+  </si>
+  <si>
+    <t>PJVVSYKDAYJZCV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo00280a013 </t>
+  </si>
+  <si>
+    <t>O=C(CF)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YOMBUJAFGMOIGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jfluchem.2007.04.015 </t>
+  </si>
+  <si>
+    <t>O=C1CCc2ccccc21</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
+  </si>
+  <si>
+    <t>ZKJADHMQUMUECR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OECPUBRNDKXFDX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1c(Cl)cc(Cl)cc1C(C)=O</t>
+  </si>
+  <si>
+    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)C(C)=O</t>
+  </si>
+  <si>
+    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>JLQHDTDAQBOUBB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1CCCC1(c1ccccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/ja00165a036 </t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(95)00609-G </t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CBr)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)c1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>NQSMEZJWJJVYOI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)CCl</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1Br</t>
+  </si>
+  <si>
+    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)C#CC1CCCCC1</t>
+  </si>
+  <si>
+    <t>SCDHTAAYEHJTGD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCC(=O)c1ccc(Cl)cc1-c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>JGUYBMKIKPABSY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#Cc1ccccc1)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>VCARCPYEXCPAJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>BRUOEHVDTAORQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/jo025594y </t>
+  </si>
+  <si>
+    <t>COC(=O)[C@]1(C)CCCC1=O</t>
+  </si>
+  <si>
+    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1cccc2ccccc12)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>VQCWOGKZDGCRES-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>QKLCQKPAECHXCQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1cccc(C(C)=O)c1</t>
+  </si>
+  <si>
+    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(97)00440-1 </t>
+  </si>
+  <si>
+    <t>CC(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)c(C(C)=O)c1</t>
+  </si>
+  <si>
+    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1CCCC12CCCC2</t>
+  </si>
+  <si>
+    <t>QRYJGVNQNLCGGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C#CC(C)=O</t>
+  </si>
+  <si>
+    <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)/C=C/c1ccccc1</t>
+  </si>
+  <si>
+    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC1(C)CCCCC1=O</t>
+  </si>
+  <si>
+    <t>KNSPBSQWRKKAPI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(Cl)(Cl)Cl</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccc1Cl</t>
+  </si>
+  <si>
+    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C#CC1CCCCC1</t>
+  </si>
+  <si>
+    <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1CCCc2ccccc21</t>
+  </si>
+  <si>
+    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC1(C)CCCC1=O</t>
+  </si>
+  <si>
+    <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FHUDAMLDXFJHJE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)F</t>
+  </si>
+  <si>
+    <t>CDGZCBOPYKCCLD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>NDQOKFMZSIKVBG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COc1ccc(C(C)=O)cc1OC</t>
   </si>
   <si>
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(97)00440-1 </t>
-  </si>
-  <si>
-    <t>CC(=O)/C=C/c1ccccc1</t>
-  </si>
-  <si>
-    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ar00013a003 </t>
-  </si>
-  <si>
-    <t>O=C1CCCC12CCCC2</t>
-  </si>
-  <si>
-    <t>QRYJGVNQNLCGGZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccccc1Cl</t>
-  </si>
-  <si>
-    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(95)00609-G </t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>QKLCQKPAECHXCQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo025594y </t>
+    <t>COc1ccc(F)cc1C(C)=O</t>
+  </si>
+  <si>
+    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC(=O)c1ccccc1C(=O)OC</t>
+  </si>
+  <si>
+    <t>QTUYJWKFWYJIOM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1CCCC1</t>
+  </si>
+  <si>
+    <t>LKENTYLPIUIMFG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCC(C)=O</t>
+  </si>
+  <si>
+    <t>GMEONFUTDYJSNV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(C)=O</t>
+  </si>
+  <si>
+    <t>ZWEHNKRNPOVVGH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FFSAXUULYPJSKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccc2ccccc2c1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>JWQLBVFFLIHXHA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
+  </si>
+  <si>
+    <t>MMUXSGDQWCOFKS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(Cl)Cl</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C=CCC(C)(C)C(=O)C#CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>OQHGRUHRHLFMBX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(Cl)Cl</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(F)F</t>
+  </si>
+  <si>
+    <t>XHILZHAQBOLGFD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C1CCCCC1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>RPTSLLGEWZGTHJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc2ccccc2c1</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCCCl)c1ccc(F)cc1</t>
+  </si>
+  <si>
+    <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/S0957-4166(00)82208-9 </t>
+  </si>
+  <si>
+    <t>COc1ccc(C)cc1C(C)=O</t>
+  </si>
+  <si>
+    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(C(C)=O)cc1</t>
+  </si>
+  <si>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCC(C)=O</t>
+  </si>
+  <si>
+    <t>ZPVFWPFBNIEHGJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>DPQDBEUDQJLCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>UKYZDGAVBNKBPQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)(C)C(C)=O</t>
+  </si>
+  <si>
+    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC#CC(=O)CF</t>
+  </si>
+  <si>
+    <t>RRJHAIWETICRET-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCl)c1ccc(Cl)cc1Cl</t>
+  </si>
+  <si>
+    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1cccs1</t>
+  </si>
+  <si>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)F</t>
+  </si>
+  <si>
+    <t>OLYKCPDTXVZOQF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>CC(=O)c1ccc(Br)cc1</t>
@@ -91,22 +649,76 @@
     <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo00248a005 </t>
-  </si>
-  <si>
-    <t>O=C(C#Cc1ccccc1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>LISOVATZGSPQOC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/0957-4166(94)80056-1 </t>
-  </si>
-  <si>
-    <t>CC1(C)CCCC1=O</t>
-  </si>
-  <si>
-    <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
+    <t>CCC(=O)c1ccc([N+](=O)[O-])cc1</t>
+  </si>
+  <si>
+    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>AMHOPTNGSNYSBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(C)=O</t>
+  </si>
+  <si>
+    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C(Cl)(Cl)Cl</t>
+  </si>
+  <si>
+    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1c2ccccc2cc2ccccc12)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>MNCMBBIFTVWHIP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)=O</t>
+  </si>
+  <si>
+    <t>XXRCUYVCPSWGCC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1C=CCCC1</t>
+  </si>
+  <si>
+    <t>FWFSEYBSWVRWGL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCC(=O)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>UYMHLXHLPQIDMA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccc1F</t>
+  </si>
+  <si>
+    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>CC(=O)CF</t>
@@ -115,622 +727,10 @@
     <t>MSWVMWGCNZQPIA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/10.1016/j.jfluchem.2007.04.015 </t>
-  </si>
-  <si>
-    <t>COc1ccc(F)cc1C(C)=O</t>
-  </si>
-  <si>
-    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(00)76780-3 </t>
-  </si>
-  <si>
-    <t>O=C(CCCCl)c1ccc(F)cc1</t>
-  </si>
-  <si>
-    <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0957-4166(00)82208-9 </t>
-  </si>
-  <si>
-    <t>CCCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>FFSAXUULYPJSKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ja00213a030 </t>
-  </si>
-  <si>
-    <t>CC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCC#CC(=O)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>XAXKYUYIYBKVHR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C=CCC(C)(C)C(=O)C#CCCCCCCCC</t>
-  </si>
-  <si>
-    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>O=C(CCCl)c1ccc(Br)cc1</t>
   </si>
   <si>
     <t>SYWQQEVHZPPLNQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>BRUOEHVDTAORQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CCCl)c1ccccc1</t>
-  </si>
-  <si>
-    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1c2ccccc2cc2ccccc12)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>MNCMBBIFTVWHIP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/S0040-4020(01)80530-5 </t>
-  </si>
-  <si>
-    <t>CCCCC(=O)c1ccccc1C(=O)OC</t>
-  </si>
-  <si>
-    <t>QTUYJWKFWYJIOM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/0040-4039(96)00260-2 </t>
-  </si>
-  <si>
-    <t>CCCC(=O)c1ccc(Cl)cc1-c1ccc(Br)cc1</t>
-  </si>
-  <si>
-    <t>JGUYBMKIKPABSY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C1CCCCC1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>RPTSLLGEWZGTHJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OECPUBRNDKXFDX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cccc(OC)c1C(C)=O</t>
-  </si>
-  <si>
-    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCC#CC(=O)C(F)(F)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>DPQDBEUDQJLCFS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
-  </si>
-  <si>
-    <t>MMUXSGDQWCOFKS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CBr)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>ONZQYZKCUHFORE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo00106a012 </t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccs1</t>
-  </si>
-  <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1c(Cl)cc(Cl)cc1C(C)=O</t>
-  </si>
-  <si>
-    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C1CCCC1</t>
-  </si>
-  <si>
-    <t>LKENTYLPIUIMFG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/jo00280a013 </t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccccc1F</t>
-  </si>
-  <si>
-    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C#Cc1ccccc1)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>VCARCPYEXCPAJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1CCCC1(c1ccccc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ja00165a036 </t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(C)C(C)=O</t>
-  </si>
-  <si>
-    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C#Cc1ccccc1)CF</t>
-  </si>
-  <si>
-    <t>KXSOGUNMZUFDEV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C(Cl)Cl</t>
-  </si>
-  <si>
-    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1ccc([N+](=O)[O-])cc1</t>
-  </si>
-  <si>
-    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C#Cc1ccccc1)C(F)F</t>
-  </si>
-  <si>
-    <t>PWFHYGISSIMQKI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
-  </si>
-  <si>
-    <t>O=C(CCl)c1ccc(Cl)cc1Cl</t>
-  </si>
-  <si>
-    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(C)=O</t>
-  </si>
-  <si>
-    <t>XXRCUYVCPSWGCC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C(Cl)(Cl)Cl</t>
-  </si>
-  <si>
-    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C(C)=O)cc1</t>
-  </si>
-  <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1cc(OC)ccc1OC</t>
-  </si>
-  <si>
-    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1ccccc1C(=O)OC</t>
-  </si>
-  <si>
-    <t>PJVVSYKDAYJZCV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC1(C)CCCCC1=O</t>
-  </si>
-  <si>
-    <t>KNSPBSQWRKKAPI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CCl)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
-  </si>
-  <si>
-    <t>ZKJADHMQUMUECR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)[C@]1(C)CCCC1=O</t>
-  </si>
-  <si>
-    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)CCl</t>
-  </si>
-  <si>
-    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)C#CC1CCCCC1</t>
-  </si>
-  <si>
-    <t>SCDHTAAYEHJTGD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1CCc2ccccc21</t>
-  </si>
-  <si>
-    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(C)(C)C(C)=O</t>
-  </si>
-  <si>
-    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>FHUDAMLDXFJHJE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCC#CC(=O)CF</t>
-  </si>
-  <si>
-    <t>RRJHAIWETICRET-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C(F)(F)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>UKYZDGAVBNKBPQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C)cc1C(C)=O</t>
-  </si>
-  <si>
-    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)c1ccccc1C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>NQSMEZJWJJVYOI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCC(=O)C1CCCCC1</t>
-  </si>
-  <si>
-    <t>UYMHLXHLPQIDMA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CCCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(C)=O</t>
-  </si>
-  <si>
-    <t>ZWEHNKRNPOVVGH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1cccc2ccccc12)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>VQCWOGKZDGCRES-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
-  </si>
-  <si>
-    <t>QRJXIADOTSHIRY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C=CCCC1</t>
-  </si>
-  <si>
-    <t>FWFSEYBSWVRWGL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C(Cl)(Cl)Cl</t>
-  </si>
-  <si>
-    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCC(=O)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>NDQOKFMZSIKVBG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C(Cl)Cl</t>
-  </si>
-  <si>
-    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C(F)F</t>
-  </si>
-  <si>
-    <t>XHILZHAQBOLGFD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CCC(C)=O</t>
-  </si>
-  <si>
-    <t>GMEONFUTDYJSNV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC(=O)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>OQHGRUHRHLFMBX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1CCCc2ccccc21</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)C#CC1CCCCC1</t>
-  </si>
-  <si>
-    <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(OC)c(C(C)=O)c1</t>
-  </si>
-  <si>
-    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cccc(C(C)=O)c1</t>
-  </si>
-  <si>
-    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCC(C)=O</t>
-  </si>
-  <si>
-    <t>ZPVFWPFBNIEHGJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCC#CC(=O)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>MKMFBYKRUQCCTG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>VUBUXALTYMBEQO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C#CC(C)=O</t>
-  </si>
-  <si>
-    <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>QXGIWMOPVOXYCX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1Br</t>
-  </si>
-  <si>
-    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(C)=O</t>
-  </si>
-  <si>
-    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCC#CC(=O)C(F)F</t>
-  </si>
-  <si>
-    <t>CDGZCBOPYKCCLD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)c1ccccc1C(C)=O</t>
-  </si>
-  <si>
-    <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)C1CCCCC1</t>
-  </si>
-  <si>
-    <t>AMHOPTNGSNYSBL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CBr)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CF)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YOMBUJAFGMOIGS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc2ccccc2c1</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C#Cc1ccccc1)C(F)(F)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>JLQHDTDAQBOUBB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C1CCCCC1</t>
-  </si>
-  <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccc2ccccc2c1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>JWQLBVFFLIHXHA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C(F)F</t>
-  </si>
-  <si>
-    <t>OLYKCPDTXVZOQF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)c1cc(OC)cc(OC)c1C(C)=O</t>
-  </si>
-  <si>
-    <t>LUWXCCCGOWDRJL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="2" spans="1:9" ht="100" customHeight="1">
       <c r="A2">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -5182,13 +5182,13 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="F2">
-        <v>0.49352</v>
+        <v>98</v>
       </c>
       <c r="G2">
-        <v>1.715524225407504</v>
+        <v>-1.920691153523556</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="3" spans="1:9" ht="100" customHeight="1">
       <c r="A3">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -5208,13 +5208,13 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>9.5</v>
+        <v>248</v>
       </c>
       <c r="F3">
-        <v>0.49352</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>1.112422729872089</v>
+        <v>-0.2001051401535412</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="4" spans="1:9" ht="100" customHeight="1">
       <c r="A4">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5234,16 +5234,16 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>2.5</v>
+        <v>248</v>
       </c>
       <c r="F4">
-        <v>0.49352</v>
+        <v>1.5</v>
       </c>
       <c r="G4">
-        <v>1.808040943597903</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5251,25 +5251,25 @@
     </row>
     <row r="5" spans="1:9" ht="100" customHeight="1">
       <c r="A5">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>57.5</v>
+        <v>298</v>
       </c>
       <c r="F5">
-        <v>0.59302</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>-0.1792586026380871</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5277,25 +5277,25 @@
     </row>
     <row r="6" spans="1:9" ht="100" customHeight="1">
       <c r="A6">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>94.5</v>
+        <v>248</v>
       </c>
       <c r="F6">
-        <v>0.38805</v>
+        <v>98.5</v>
       </c>
       <c r="G6">
-        <v>-1.103556668584487</v>
+        <v>-2.065179567503288</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5303,25 +5303,25 @@
     </row>
     <row r="7" spans="1:9" ht="100" customHeight="1">
       <c r="A7">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>248</v>
       </c>
       <c r="F7">
-        <v>0.49352</v>
+        <v>99.5</v>
       </c>
       <c r="G7">
-        <v>2.065179567503287</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5329,25 +5329,25 @@
     </row>
     <row r="8" spans="1:9" ht="100" customHeight="1">
       <c r="A8">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>298</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>3.139035627158119</v>
+      </c>
+      <c r="H8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.49352</v>
-      </c>
-      <c r="G8">
-        <v>2.267783548438423</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="9" spans="1:9" ht="100" customHeight="1">
       <c r="A9">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5364,16 +5364,16 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="F9">
-        <v>0.49352</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2.267783548438423</v>
+        <v>2.307927273185564</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="10" spans="1:9" ht="100" customHeight="1">
       <c r="A10">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -5390,13 +5390,13 @@
         <v>32</v>
       </c>
       <c r="E10">
-        <v>19.5</v>
+        <v>248</v>
       </c>
       <c r="F10">
-        <v>0.49352</v>
+        <v>76.5</v>
       </c>
       <c r="G10">
-        <v>0.6997337386092292</v>
+        <v>-0.5824968785696466</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="11" spans="1:9" ht="100" customHeight="1">
       <c r="A11">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -5416,13 +5416,13 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="F11">
-        <v>0.49352</v>
+        <v>2.5</v>
       </c>
       <c r="G11">
-        <v>1.715524225407504</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="12" spans="1:9" ht="100" customHeight="1">
       <c r="A12">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -5442,16 +5442,16 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="F12">
-        <v>0.49352</v>
+        <v>99.5</v>
       </c>
       <c r="G12">
-        <v>2.267783548438423</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5459,25 +5459,25 @@
     </row>
     <row r="13" spans="1:9" ht="100" customHeight="1">
       <c r="A13">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>248</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="H13" t="s">
         <v>41</v>
-      </c>
-      <c r="E13">
-        <v>0.899999999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.49352</v>
-      </c>
-      <c r="G13">
-        <v>2.320279323575566</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5485,25 +5485,25 @@
     </row>
     <row r="14" spans="1:9" ht="100" customHeight="1">
       <c r="A14">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
       <c r="E14">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="F14">
-        <v>0.49352</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3273489621763137</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5511,25 +5511,25 @@
     </row>
     <row r="15" spans="1:9" ht="100" customHeight="1">
       <c r="A15">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>248</v>
       </c>
       <c r="F15">
-        <v>0.59302</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>3.139035627158119</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5537,25 +5537,25 @@
     </row>
     <row r="16" spans="1:9" ht="100" customHeight="1">
       <c r="A16">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
       <c r="E16">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="F16">
-        <v>0.49352</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>-1.920691153523556</v>
+        <v>1.920691153523556</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5563,25 +5563,25 @@
     </row>
     <row r="17" spans="1:9" ht="100" customHeight="1">
       <c r="A17">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
       <c r="E17">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="F17">
-        <v>0.59302</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-0.3412024452107102</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5589,25 +5589,25 @@
     </row>
     <row r="18" spans="1:9" ht="100" customHeight="1">
       <c r="A18">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="F18">
-        <v>0.49352</v>
+        <v>31</v>
       </c>
       <c r="G18">
-        <v>2.267783548438423</v>
+        <v>0.4744867473524853</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5615,25 +5615,25 @@
     </row>
     <row r="19" spans="1:9" ht="100" customHeight="1">
       <c r="A19">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
       <c r="E19">
-        <v>0.5</v>
+        <v>248</v>
       </c>
       <c r="F19">
-        <v>0.49352</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.612351797098031</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5641,25 +5641,25 @@
     </row>
     <row r="20" spans="1:9" ht="100" customHeight="1">
       <c r="A20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20">
+        <v>248</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>0.2626596419205716</v>
+      </c>
+      <c r="H20" t="s">
         <v>56</v>
-      </c>
-      <c r="E20">
-        <v>1.5</v>
-      </c>
-      <c r="F20">
-        <v>0.49352</v>
-      </c>
-      <c r="G20">
-        <v>2.065179567503287</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="21" spans="1:9" ht="100" customHeight="1">
       <c r="A21">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -5676,13 +5676,13 @@
         <v>58</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="F21">
-        <v>0.59302</v>
+        <v>97.5</v>
       </c>
       <c r="G21">
-        <v>1.372031785702698</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="22" spans="1:9" ht="100" customHeight="1">
       <c r="A22">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -5702,16 +5702,16 @@
         <v>61</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>248</v>
       </c>
       <c r="F22">
-        <v>0.49352</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="G22">
-        <v>2.612351797098031</v>
+        <v>2.136803750966795</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5719,25 +5719,25 @@
     </row>
     <row r="23" spans="1:9" ht="100" customHeight="1">
       <c r="A23">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="F23">
-        <v>0.49352</v>
+        <v>99.5</v>
       </c>
       <c r="G23">
-        <v>2.267783548438423</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5745,25 +5745,25 @@
     </row>
     <row r="24" spans="1:9" ht="100" customHeight="1">
       <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
       <c r="E24">
-        <v>6.5</v>
+        <v>248</v>
       </c>
       <c r="F24">
-        <v>0.59302</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="G24">
-        <v>1.581085764005266</v>
+        <v>-1.06547349528128</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5771,25 +5771,25 @@
     </row>
     <row r="25" spans="1:9" ht="100" customHeight="1">
       <c r="A25">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
       <c r="E25">
-        <v>89.65000000000001</v>
+        <v>248</v>
       </c>
       <c r="F25">
-        <v>0.49352</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>-1.06547349528128</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="26" spans="1:9" ht="100" customHeight="1">
       <c r="A26">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
       <c r="E26">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="F26">
-        <v>0.49352</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>-0.2001051401535412</v>
+        <v>1.448360638914646</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -5823,25 +5823,25 @@
     </row>
     <row r="27" spans="1:9" ht="100" customHeight="1">
       <c r="A27">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
       <c r="E27">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="F27">
-        <v>0.59302</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>1.884649482472939</v>
+        <v>2.061396045046114</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5849,25 +5849,25 @@
     </row>
     <row r="28" spans="1:9" ht="100" customHeight="1">
       <c r="A28">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28">
+        <v>293</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2.269203661219363</v>
+      </c>
+      <c r="H28" t="s">
         <v>74</v>
-      </c>
-      <c r="E28">
-        <v>99.5</v>
-      </c>
-      <c r="F28">
-        <v>0.49352</v>
-      </c>
-      <c r="G28">
-        <v>-2.61235179709804</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="29" spans="1:9" ht="100" customHeight="1">
       <c r="A29">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
@@ -5884,16 +5884,16 @@
         <v>76</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>298</v>
       </c>
       <c r="F29">
-        <v>0.49352</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>1.453139524998222</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5901,25 +5901,25 @@
     </row>
     <row r="30" spans="1:9" ht="100" customHeight="1">
       <c r="A30">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="F30">
-        <v>0.49352</v>
+        <v>97.5</v>
       </c>
       <c r="G30">
-        <v>-1.920691153523556</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="31" spans="1:9" ht="100" customHeight="1">
       <c r="A31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>80</v>
@@ -5936,16 +5936,16 @@
         <v>81</v>
       </c>
       <c r="E31">
-        <v>4.35</v>
+        <v>248</v>
       </c>
       <c r="F31">
-        <v>0.49352</v>
+        <v>93</v>
       </c>
       <c r="G31">
-        <v>1.525233356759743</v>
+        <v>-1.276582925099217</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="32" spans="1:9" ht="100" customHeight="1">
       <c r="A32">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
         <v>82</v>
@@ -5962,16 +5962,16 @@
         <v>83</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="F32">
-        <v>0.49352</v>
+        <v>65</v>
       </c>
       <c r="G32">
-        <v>1.715524225407504</v>
+        <v>-0.3671026313690585</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="33" spans="1:9" ht="100" customHeight="1">
       <c r="A33">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
@@ -5988,16 +5988,16 @@
         <v>85</v>
       </c>
       <c r="E33">
-        <v>27.5</v>
+        <v>248</v>
       </c>
       <c r="F33">
-        <v>0.49352</v>
+        <v>59</v>
       </c>
       <c r="G33">
-        <v>0.4784185629834729</v>
+        <v>-0.1796241929564407</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6005,25 +6005,25 @@
     </row>
     <row r="34" spans="1:9" ht="100" customHeight="1">
       <c r="A34">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
         <v>87</v>
       </c>
-      <c r="D34" t="s">
-        <v>88</v>
-      </c>
       <c r="E34">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="F34">
-        <v>0.59302</v>
+        <v>0.5</v>
       </c>
       <c r="G34">
-        <v>-0.3412024452107102</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6031,25 +6031,25 @@
     </row>
     <row r="35" spans="1:9" ht="100" customHeight="1">
       <c r="A35">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
       <c r="E35">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="F35">
-        <v>0.59302</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>2.307927273185564</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="36" spans="1:9" ht="100" customHeight="1">
       <c r="A36">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
       <c r="E36">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F36">
-        <v>0.58307</v>
+        <v>69.5</v>
       </c>
       <c r="G36">
-        <v>2.269203661219363</v>
+        <v>-0.4064631060318465</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6083,25 +6083,25 @@
     </row>
     <row r="37" spans="1:9" ht="100" customHeight="1">
       <c r="A37">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="F37">
-        <v>0.59302</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.448360638914646</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6109,25 +6109,25 @@
     </row>
     <row r="38" spans="1:9" ht="100" customHeight="1">
       <c r="A38">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="F38">
-        <v>0.59302</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>-0.3412024452107102</v>
+        <v>2.307927273185564</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -6135,25 +6135,25 @@
     </row>
     <row r="39" spans="1:9" ht="100" customHeight="1">
       <c r="A39">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39">
+        <v>248</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>2.612351797098031</v>
+      </c>
+      <c r="H39" t="s">
         <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39">
-        <v>57.5</v>
-      </c>
-      <c r="F39">
-        <v>0.49352</v>
-      </c>
-      <c r="G39">
-        <v>-0.1491816558867302</v>
-      </c>
-      <c r="H39" t="s">
-        <v>33</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -6161,25 +6161,25 @@
     </row>
     <row r="40" spans="1:9" ht="100" customHeight="1">
       <c r="A40">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
         <v>100</v>
       </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
       <c r="E40">
-        <v>1.5</v>
+        <v>248</v>
       </c>
       <c r="F40">
-        <v>0.49352</v>
+        <v>3.5</v>
       </c>
       <c r="G40">
-        <v>2.065179567503287</v>
+        <v>1.636897285266561</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -6187,25 +6187,25 @@
     </row>
     <row r="41" spans="1:9" ht="100" customHeight="1">
       <c r="A41">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
         <v>102</v>
       </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
       <c r="E41">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="F41">
-        <v>0.59302</v>
+        <v>99</v>
       </c>
       <c r="G41">
-        <v>0.4744867473524853</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -6213,25 +6213,25 @@
     </row>
     <row r="42" spans="1:9" ht="100" customHeight="1">
       <c r="A42">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
         <v>104</v>
       </c>
-      <c r="D42" t="s">
-        <v>105</v>
-      </c>
       <c r="E42">
-        <v>76.5</v>
+        <v>248</v>
       </c>
       <c r="F42">
-        <v>0.49352</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>-0.5824968785696466</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H42" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -6239,25 +6239,25 @@
     </row>
     <row r="43" spans="1:9" ht="100" customHeight="1">
       <c r="A43">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43">
+        <v>298</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>1.239851285303664</v>
+      </c>
+      <c r="H43" t="s">
         <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43">
-        <v>96.5</v>
-      </c>
-      <c r="F43">
-        <v>0.49352</v>
-      </c>
-      <c r="G43">
-        <v>-1.636897285266562</v>
-      </c>
-      <c r="H43" t="s">
-        <v>25</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -6265,25 +6265,25 @@
     </row>
     <row r="44" spans="1:9" ht="100" customHeight="1">
       <c r="A44">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="F44">
-        <v>0.38805</v>
+        <v>94.5</v>
       </c>
       <c r="G44">
-        <v>0.8978060342685438</v>
+        <v>-1.103556668584487</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -6291,25 +6291,25 @@
     </row>
     <row r="45" spans="1:9" ht="100" customHeight="1">
       <c r="A45">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <v>248</v>
+      </c>
+      <c r="F45">
+        <v>2.5</v>
+      </c>
+      <c r="G45">
+        <v>1.808040943597903</v>
+      </c>
+      <c r="H45" t="s">
         <v>111</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45">
-        <v>4.5</v>
-      </c>
-      <c r="F45">
-        <v>0.49352</v>
-      </c>
-      <c r="G45">
-        <v>1.507727708802602</v>
-      </c>
-      <c r="H45" t="s">
-        <v>33</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6317,25 +6317,25 @@
     </row>
     <row r="46" spans="1:9" ht="100" customHeight="1">
       <c r="A46">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
         <v>113</v>
       </c>
-      <c r="D46" t="s">
-        <v>114</v>
-      </c>
       <c r="E46">
-        <v>6.5</v>
+        <v>248</v>
       </c>
       <c r="F46">
-        <v>0.49352</v>
+        <v>2.5</v>
       </c>
       <c r="G46">
-        <v>1.315802917695658</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6343,22 +6343,22 @@
     </row>
     <row r="47" spans="1:9" ht="100" customHeight="1">
       <c r="A47">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
         <v>115</v>
       </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
       <c r="E47">
-        <v>2</v>
+        <v>273</v>
       </c>
       <c r="F47">
-        <v>0.49352</v>
+        <v>3.5</v>
       </c>
       <c r="G47">
-        <v>1.920691153523556</v>
+        <v>1.801907092249077</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -6369,25 +6369,25 @@
     </row>
     <row r="48" spans="1:9" ht="100" customHeight="1">
       <c r="A48">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
         <v>117</v>
       </c>
-      <c r="D48" t="s">
-        <v>118</v>
-      </c>
       <c r="E48">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="F48">
-        <v>0.49352</v>
+        <v>2.5</v>
       </c>
       <c r="G48">
-        <v>2.267783548438423</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -6395,25 +6395,25 @@
     </row>
     <row r="49" spans="1:9" ht="100" customHeight="1">
       <c r="A49">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
         <v>119</v>
       </c>
-      <c r="D49" t="s">
-        <v>120</v>
-      </c>
       <c r="E49">
-        <v>4.5</v>
+        <v>248</v>
       </c>
       <c r="F49">
-        <v>0.49352</v>
+        <v>58.5</v>
       </c>
       <c r="G49">
-        <v>1.507727708802602</v>
+        <v>-0.1694418635416117</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6421,25 +6421,25 @@
     </row>
     <row r="50" spans="1:9" ht="100" customHeight="1">
       <c r="A50">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" t="s">
-        <v>122</v>
-      </c>
       <c r="E50">
-        <v>60.5</v>
+        <v>248</v>
       </c>
       <c r="F50">
-        <v>0.49352</v>
+        <v>9.5</v>
       </c>
       <c r="G50">
-        <v>-0.2104086459133792</v>
+        <v>1.112422729872089</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6447,25 +6447,25 @@
     </row>
     <row r="51" spans="1:9" ht="100" customHeight="1">
       <c r="A51">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
         <v>123</v>
       </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
       <c r="E51">
-        <v>97.5</v>
+        <v>248</v>
       </c>
       <c r="F51">
-        <v>0.49352</v>
+        <v>34</v>
       </c>
       <c r="G51">
-        <v>-1.808040943597905</v>
+        <v>0.3273489621763137</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6473,25 +6473,25 @@
     </row>
     <row r="52" spans="1:9" ht="100" customHeight="1">
       <c r="A52">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
         <v>125</v>
       </c>
-      <c r="D52" t="s">
-        <v>126</v>
-      </c>
       <c r="E52">
-        <v>99.5</v>
+        <v>248</v>
       </c>
       <c r="F52">
-        <v>0.49352</v>
+        <v>4.5</v>
       </c>
       <c r="G52">
-        <v>-2.61235179709804</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -6499,25 +6499,25 @@
     </row>
     <row r="53" spans="1:9" ht="100" customHeight="1">
       <c r="A53">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
         <v>127</v>
       </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
       <c r="E53">
-        <v>3.5</v>
+        <v>248</v>
       </c>
       <c r="F53">
-        <v>0.49352</v>
+        <v>4.5</v>
       </c>
       <c r="G53">
-        <v>1.636897285266561</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -6525,25 +6525,25 @@
     </row>
     <row r="54" spans="1:9" ht="100" customHeight="1">
       <c r="A54">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
         <v>129</v>
       </c>
-      <c r="D54" t="s">
-        <v>130</v>
-      </c>
       <c r="E54">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="F54">
-        <v>0.49352</v>
+        <v>57.5</v>
       </c>
       <c r="G54">
-        <v>-0.1796241929564407</v>
+        <v>-0.1792586026380871</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6551,25 +6551,25 @@
     </row>
     <row r="55" spans="1:9" ht="100" customHeight="1">
       <c r="A55">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
         <v>131</v>
       </c>
-      <c r="D55" t="s">
-        <v>132</v>
-      </c>
       <c r="E55">
-        <v>50</v>
+        <v>296</v>
       </c>
       <c r="F55">
-        <v>0.59302</v>
+        <v>98.5</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>-2.464891741858764</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6577,25 +6577,25 @@
     </row>
     <row r="56" spans="1:9" ht="100" customHeight="1">
       <c r="A56">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
         <v>133</v>
       </c>
-      <c r="D56" t="s">
-        <v>134</v>
-      </c>
       <c r="E56">
-        <v>69.5</v>
+        <v>248</v>
       </c>
       <c r="F56">
-        <v>0.49352</v>
+        <v>6.299999999999997</v>
       </c>
       <c r="G56">
-        <v>-0.4064631060318465</v>
+        <v>1.332281203281557</v>
       </c>
       <c r="H56" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -6603,25 +6603,25 @@
     </row>
     <row r="57" spans="1:9" ht="100" customHeight="1">
       <c r="A57">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
         <v>135</v>
       </c>
-      <c r="D57" t="s">
-        <v>136</v>
-      </c>
       <c r="E57">
-        <v>1.3</v>
+        <v>248</v>
       </c>
       <c r="F57">
-        <v>0.49352</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>2.136803750966794</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6629,25 +6629,25 @@
     </row>
     <row r="58" spans="1:9" ht="100" customHeight="1">
       <c r="A58">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
         <v>137</v>
       </c>
-      <c r="D58" t="s">
-        <v>138</v>
-      </c>
       <c r="E58">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="F58">
-        <v>0.49352</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>1.141825110249225</v>
+        <v>2.269203661219363</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6655,25 +6655,25 @@
     </row>
     <row r="59" spans="1:9" ht="100" customHeight="1">
       <c r="A59">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" t="s">
         <v>139</v>
       </c>
-      <c r="D59" t="s">
-        <v>140</v>
-      </c>
       <c r="E59">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="F59">
-        <v>0.58307</v>
+        <v>42.5</v>
       </c>
       <c r="G59">
-        <v>2.269203661219363</v>
+        <v>0.1792586026380871</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -6681,25 +6681,25 @@
     </row>
     <row r="60" spans="1:9" ht="100" customHeight="1">
       <c r="A60">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
         <v>141</v>
       </c>
-      <c r="D60" t="s">
-        <v>142</v>
-      </c>
       <c r="E60">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="F60">
-        <v>0.59302</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>-0.5898310795119318</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -6707,25 +6707,25 @@
     </row>
     <row r="61" spans="1:9" ht="100" customHeight="1">
       <c r="A61">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
         <v>143</v>
       </c>
-      <c r="D61" t="s">
-        <v>144</v>
-      </c>
       <c r="E61">
-        <v>6.5</v>
+        <v>248</v>
       </c>
       <c r="F61">
-        <v>0.59302</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>1.581085764005266</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="H61" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -6733,25 +6733,25 @@
     </row>
     <row r="62" spans="1:9" ht="100" customHeight="1">
       <c r="A62">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" t="s">
         <v>145</v>
       </c>
-      <c r="D62" t="s">
-        <v>146</v>
-      </c>
       <c r="E62">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="F62">
-        <v>0.38805</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>-1.23324378886652</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -6759,25 +6759,25 @@
     </row>
     <row r="63" spans="1:9" ht="100" customHeight="1">
       <c r="A63">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
         <v>147</v>
       </c>
-      <c r="D63" t="s">
-        <v>148</v>
-      </c>
       <c r="E63">
-        <v>2.5</v>
+        <v>248</v>
       </c>
       <c r="F63">
-        <v>0.49352</v>
+        <v>0.5</v>
       </c>
       <c r="G63">
-        <v>1.808040943597903</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="H63" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6785,25 +6785,25 @@
     </row>
     <row r="64" spans="1:9" ht="100" customHeight="1">
       <c r="A64">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
         <v>149</v>
       </c>
-      <c r="D64" t="s">
-        <v>150</v>
-      </c>
       <c r="E64">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="F64">
-        <v>0.59302</v>
+        <v>27.5</v>
       </c>
       <c r="G64">
-        <v>-0.3671026313690585</v>
+        <v>0.4784185629834729</v>
       </c>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6811,25 +6811,25 @@
     </row>
     <row r="65" spans="1:9" ht="100" customHeight="1">
       <c r="A65">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" t="s">
         <v>151</v>
       </c>
-      <c r="D65" t="s">
-        <v>152</v>
-      </c>
       <c r="E65">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="F65">
-        <v>0.49352</v>
+        <v>63.5</v>
       </c>
       <c r="G65">
-        <v>0.3948748769913301</v>
+        <v>-0.2732756675134899</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6837,25 +6837,25 @@
     </row>
     <row r="66" spans="1:9" ht="100" customHeight="1">
       <c r="A66">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" t="s">
         <v>153</v>
       </c>
-      <c r="D66" t="s">
-        <v>154</v>
-      </c>
       <c r="E66">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="F66">
-        <v>0.49352</v>
+        <v>48</v>
       </c>
       <c r="G66">
-        <v>2.267783548438423</v>
+        <v>0.03950267709104377</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6863,25 +6863,25 @@
     </row>
     <row r="67" spans="1:9" ht="100" customHeight="1">
       <c r="A67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
         <v>155</v>
       </c>
-      <c r="D67" t="s">
-        <v>156</v>
-      </c>
       <c r="E67">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="F67">
-        <v>0.49352</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="G67">
-        <v>0.03950267709104377</v>
+        <v>2.320279323575566</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6889,25 +6889,25 @@
     </row>
     <row r="68" spans="1:9" ht="100" customHeight="1">
       <c r="A68">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" t="s">
         <v>157</v>
       </c>
-      <c r="D68" t="s">
-        <v>158</v>
-      </c>
       <c r="E68">
-        <v>1.35</v>
+        <v>298</v>
       </c>
       <c r="F68">
-        <v>0.49352</v>
+        <v>4.5</v>
       </c>
       <c r="G68">
-        <v>2.117928070821825</v>
+        <v>1.811705069448287</v>
       </c>
       <c r="H68" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6915,25 +6915,25 @@
     </row>
     <row r="69" spans="1:9" ht="100" customHeight="1">
       <c r="A69">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
         <v>159</v>
       </c>
-      <c r="D69" t="s">
-        <v>160</v>
-      </c>
       <c r="E69">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="F69">
-        <v>0.59302</v>
+        <v>99.5</v>
       </c>
       <c r="G69">
-        <v>1.239851285303664</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="H69" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6941,25 +6941,25 @@
     </row>
     <row r="70" spans="1:9" ht="100" customHeight="1">
       <c r="A70">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
         <v>161</v>
       </c>
-      <c r="D70" t="s">
-        <v>162</v>
-      </c>
       <c r="E70">
-        <v>99.5</v>
+        <v>248</v>
       </c>
       <c r="F70">
-        <v>0.49352</v>
+        <v>60.5</v>
       </c>
       <c r="G70">
-        <v>-2.61235179709804</v>
+        <v>-0.2104086459133792</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6967,25 +6967,25 @@
     </row>
     <row r="71" spans="1:9" ht="100" customHeight="1">
       <c r="A71">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s">
         <v>163</v>
       </c>
-      <c r="D71" t="s">
-        <v>164</v>
-      </c>
       <c r="E71">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="F71">
-        <v>0.49352</v>
+        <v>57.5</v>
       </c>
       <c r="G71">
-        <v>0.3720014599087912</v>
+        <v>-0.1491816558867302</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6993,25 +6993,25 @@
     </row>
     <row r="72" spans="1:9" ht="100" customHeight="1">
       <c r="A72">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
         <v>165</v>
       </c>
-      <c r="D72" t="s">
-        <v>166</v>
-      </c>
       <c r="E72">
-        <v>4.5</v>
+        <v>248</v>
       </c>
       <c r="F72">
-        <v>0.58307</v>
+        <v>98</v>
       </c>
       <c r="G72">
-        <v>1.781307333383719</v>
+        <v>-1.920691153523556</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -7019,25 +7019,25 @@
     </row>
     <row r="73" spans="1:9" ht="100" customHeight="1">
       <c r="A73">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" t="s">
         <v>167</v>
       </c>
-      <c r="D73" t="s">
-        <v>168</v>
-      </c>
       <c r="E73">
-        <v>1.5</v>
+        <v>298</v>
       </c>
       <c r="F73">
-        <v>0.49352</v>
+        <v>4.5</v>
       </c>
       <c r="G73">
-        <v>2.065179567503287</v>
+        <v>1.811705069448287</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -7045,22 +7045,22 @@
     </row>
     <row r="74" spans="1:9" ht="100" customHeight="1">
       <c r="A74">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
         <v>169</v>
       </c>
-      <c r="D74" t="s">
-        <v>170</v>
-      </c>
       <c r="E74">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="F74">
-        <v>0.59302</v>
+        <v>91</v>
       </c>
       <c r="G74">
-        <v>1.884649482472939</v>
+        <v>-1.141825110249225</v>
       </c>
       <c r="H74" t="s">
         <v>59</v>
@@ -7071,25 +7071,25 @@
     </row>
     <row r="75" spans="1:9" ht="100" customHeight="1">
       <c r="A75">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s">
         <v>171</v>
       </c>
-      <c r="D75" t="s">
-        <v>172</v>
-      </c>
       <c r="E75">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="F75">
-        <v>0.49352</v>
+        <v>52.5</v>
       </c>
       <c r="G75">
-        <v>-1.141825110249225</v>
+        <v>-0.04939318846704208</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7097,25 +7097,25 @@
     </row>
     <row r="76" spans="1:9" ht="100" customHeight="1">
       <c r="A76">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" t="s">
         <v>173</v>
       </c>
-      <c r="D76" t="s">
-        <v>174</v>
-      </c>
       <c r="E76">
-        <v>52.5</v>
+        <v>248</v>
       </c>
       <c r="F76">
-        <v>0.49352</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>-0.04939318846704208</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7123,25 +7123,25 @@
     </row>
     <row r="77" spans="1:9" ht="100" customHeight="1">
       <c r="A77">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
         <v>175</v>
       </c>
-      <c r="D77" t="s">
-        <v>176</v>
-      </c>
       <c r="E77">
-        <v>63.5</v>
+        <v>298</v>
       </c>
       <c r="F77">
-        <v>0.49352</v>
+        <v>6.5</v>
       </c>
       <c r="G77">
-        <v>-0.2732756675134899</v>
+        <v>1.581085764005266</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7149,25 +7149,25 @@
     </row>
     <row r="78" spans="1:9" ht="100" customHeight="1">
       <c r="A78">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="s">
         <v>177</v>
       </c>
-      <c r="D78" t="s">
-        <v>178</v>
-      </c>
       <c r="E78">
-        <v>4.5</v>
+        <v>248</v>
       </c>
       <c r="F78">
-        <v>0.59302</v>
+        <v>0.9500000000000028</v>
       </c>
       <c r="G78">
-        <v>1.811705069448287</v>
+        <v>2.293347004688446</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7175,25 +7175,25 @@
     </row>
     <row r="79" spans="1:9" ht="100" customHeight="1">
       <c r="A79">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" t="s">
         <v>179</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79">
+        <v>248</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="H79" t="s">
         <v>180</v>
-      </c>
-      <c r="E79">
-        <v>6.3</v>
-      </c>
-      <c r="F79">
-        <v>0.49352</v>
-      </c>
-      <c r="G79">
-        <v>1.332281203281557</v>
-      </c>
-      <c r="H79" t="s">
-        <v>42</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="80" spans="1:9" ht="100" customHeight="1">
       <c r="A80">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>181</v>
@@ -7210,16 +7210,16 @@
         <v>182</v>
       </c>
       <c r="E80">
-        <v>98.5</v>
+        <v>248</v>
       </c>
       <c r="F80">
-        <v>0.58904</v>
+        <v>2.5</v>
       </c>
       <c r="G80">
-        <v>-2.464891741858764</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="81" spans="1:9" ht="100" customHeight="1">
       <c r="A81">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
         <v>183</v>
@@ -7236,16 +7236,16 @@
         <v>184</v>
       </c>
       <c r="E81">
-        <v>3.5</v>
+        <v>248</v>
       </c>
       <c r="F81">
-        <v>0.54327</v>
+        <v>6.5</v>
       </c>
       <c r="G81">
-        <v>1.801907092249077</v>
+        <v>1.315802917695658</v>
       </c>
       <c r="H81" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="82" spans="1:9" ht="100" customHeight="1">
       <c r="A82">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
         <v>185</v>
@@ -7262,16 +7262,16 @@
         <v>186</v>
       </c>
       <c r="E82">
-        <v>2.5</v>
+        <v>248</v>
       </c>
       <c r="F82">
-        <v>0.49352</v>
+        <v>53.5</v>
       </c>
       <c r="G82">
-        <v>1.808040943597903</v>
+        <v>-0.06920598452264508</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="83" spans="1:9" ht="100" customHeight="1">
       <c r="A83">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
         <v>187</v>
@@ -7288,16 +7288,16 @@
         <v>188</v>
       </c>
       <c r="E83">
-        <v>53.5</v>
+        <v>298</v>
       </c>
       <c r="F83">
-        <v>0.49352</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>-0.06920598452264508</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="H83" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="84" spans="1:9" ht="100" customHeight="1">
       <c r="A84">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
         <v>189</v>
@@ -7314,16 +7314,16 @@
         <v>190</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="F84">
-        <v>0.59302</v>
+        <v>6.5</v>
       </c>
       <c r="G84">
-        <v>2.307927273185564</v>
+        <v>1.581085764005266</v>
       </c>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="85" spans="1:9" ht="100" customHeight="1">
       <c r="A85">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
         <v>191</v>
@@ -7340,16 +7340,16 @@
         <v>192</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="F85">
-        <v>0.59302</v>
+        <v>64</v>
       </c>
       <c r="G85">
-        <v>1.884649482472939</v>
+        <v>-0.2839537127928058</v>
       </c>
       <c r="H85" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="86" spans="1:9" ht="100" customHeight="1">
       <c r="A86">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>193</v>
@@ -7366,24 +7366,24 @@
         <v>194</v>
       </c>
       <c r="E86">
-        <v>58.5</v>
+        <v>248</v>
       </c>
       <c r="F86">
-        <v>0.49352</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="G86">
-        <v>-0.1694418635416117</v>
+        <v>2.136803750966795</v>
       </c>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="100" customHeight="1">
       <c r="A87">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
         <v>195</v>
@@ -7392,16 +7392,16 @@
         <v>196</v>
       </c>
       <c r="E87">
-        <v>99.5</v>
+        <v>293</v>
       </c>
       <c r="F87">
-        <v>0.49352</v>
+        <v>5</v>
       </c>
       <c r="G87">
-        <v>-2.61235179709804</v>
+        <v>1.716814035582576</v>
       </c>
       <c r="H87" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="88" spans="1:9" ht="100" customHeight="1">
       <c r="A88">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
         <v>197</v>
@@ -7418,16 +7418,16 @@
         <v>198</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="F88">
-        <v>0.49352</v>
+        <v>9</v>
       </c>
       <c r="G88">
-        <v>2.267783548438423</v>
+        <v>1.141825110249225</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="89" spans="1:9" ht="100" customHeight="1">
       <c r="A89">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
         <v>199</v>
@@ -7444,16 +7444,16 @@
         <v>200</v>
       </c>
       <c r="E89">
-        <v>0.5</v>
+        <v>298</v>
       </c>
       <c r="F89">
-        <v>0.49352</v>
+        <v>73</v>
       </c>
       <c r="G89">
-        <v>2.612351797098031</v>
+        <v>-0.5898310795119318</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="90" spans="1:9" ht="100" customHeight="1">
       <c r="A90">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
         <v>201</v>
@@ -7470,16 +7470,16 @@
         <v>202</v>
       </c>
       <c r="E90">
-        <v>1.5</v>
+        <v>248</v>
       </c>
       <c r="F90">
-        <v>0.49352</v>
+        <v>96.5</v>
       </c>
       <c r="G90">
-        <v>2.065179567503287</v>
+        <v>-1.636897285266562</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="91" spans="1:9" ht="100" customHeight="1">
       <c r="A91">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>203</v>
@@ -7496,16 +7496,16 @@
         <v>204</v>
       </c>
       <c r="E91">
-        <v>1.3</v>
+        <v>248</v>
       </c>
       <c r="F91">
-        <v>0.49352</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="G91">
-        <v>2.136803750966794</v>
+        <v>1.525233356759743</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="92" spans="1:9" ht="100" customHeight="1">
       <c r="A92">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
         <v>205</v>
@@ -7522,16 +7522,16 @@
         <v>206</v>
       </c>
       <c r="E92">
-        <v>42.5</v>
+        <v>248</v>
       </c>
       <c r="F92">
-        <v>0.59302</v>
+        <v>92.5</v>
       </c>
       <c r="G92">
-        <v>0.1792586026380871</v>
+        <v>-1.239873071544692</v>
       </c>
       <c r="H92" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="93" spans="1:9" ht="100" customHeight="1">
       <c r="A93">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>207</v>
@@ -7548,16 +7548,16 @@
         <v>208</v>
       </c>
       <c r="E93">
-        <v>1.5</v>
+        <v>248</v>
       </c>
       <c r="F93">
-        <v>0.49352</v>
+        <v>1.350000000000001</v>
       </c>
       <c r="G93">
-        <v>2.065179567503287</v>
+        <v>2.117928070821824</v>
       </c>
       <c r="H93" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="94" spans="1:9" ht="100" customHeight="1">
       <c r="A94">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
@@ -7574,16 +7574,16 @@
         <v>210</v>
       </c>
       <c r="E94">
-        <v>38.5</v>
+        <v>248</v>
       </c>
       <c r="F94">
-        <v>0.49352</v>
+        <v>1.5</v>
       </c>
       <c r="G94">
-        <v>0.2311543712701654</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H94" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="95" spans="1:9" ht="100" customHeight="1">
       <c r="A95">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
         <v>211</v>
@@ -7600,16 +7600,16 @@
         <v>212</v>
       </c>
       <c r="E95">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="F95">
-        <v>0.49352</v>
+        <v>1.5</v>
       </c>
       <c r="G95">
-        <v>-1.276582925099217</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="96" spans="1:9" ht="100" customHeight="1">
       <c r="A96">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
         <v>213</v>
@@ -7626,16 +7626,16 @@
         <v>214</v>
       </c>
       <c r="E96">
-        <v>97.5</v>
+        <v>195</v>
       </c>
       <c r="F96">
-        <v>0.49352</v>
+        <v>96</v>
       </c>
       <c r="G96">
-        <v>-1.808040943597905</v>
+        <v>-1.23324378886652</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="97" spans="1:9" ht="100" customHeight="1">
       <c r="A97">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>215</v>
@@ -7652,16 +7652,16 @@
         <v>216</v>
       </c>
       <c r="E97">
+        <v>248</v>
+      </c>
+      <c r="F97">
         <v>5</v>
       </c>
-      <c r="F97">
-        <v>0.58307</v>
-      </c>
       <c r="G97">
-        <v>1.716814035582576</v>
+        <v>1.453139524998222</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="98" spans="1:9" ht="100" customHeight="1">
       <c r="A98">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B98" t="s">
         <v>217</v>
@@ -7678,16 +7678,16 @@
         <v>218</v>
       </c>
       <c r="E98">
-        <v>0.950000000000003</v>
+        <v>248</v>
       </c>
       <c r="F98">
-        <v>0.49352</v>
+        <v>38.5</v>
       </c>
       <c r="G98">
-        <v>2.293347004688446</v>
+        <v>0.2311543712701654</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="99" spans="1:9" ht="100" customHeight="1">
       <c r="A99">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
         <v>219</v>
@@ -7704,16 +7704,16 @@
         <v>220</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="F99">
-        <v>0.59302</v>
+        <v>1.5</v>
       </c>
       <c r="G99">
-        <v>2.061396045046114</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="H99" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="100" spans="1:9" ht="100" customHeight="1">
       <c r="A100">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
         <v>221</v>
@@ -7730,16 +7730,16 @@
         <v>222</v>
       </c>
       <c r="E100">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="F100">
-        <v>0.49352</v>
+        <v>4.5</v>
       </c>
       <c r="G100">
-        <v>0.2626596419205716</v>
+        <v>1.781307333383719</v>
       </c>
       <c r="H100" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="101" spans="1:9" ht="100" customHeight="1">
       <c r="A101">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
         <v>223</v>
@@ -7756,16 +7756,16 @@
         <v>224</v>
       </c>
       <c r="E101">
-        <v>2.5</v>
+        <v>298</v>
       </c>
       <c r="F101">
-        <v>0.49352</v>
+        <v>9</v>
       </c>
       <c r="G101">
-        <v>1.808040943597903</v>
+        <v>1.372031785702698</v>
       </c>
       <c r="H101" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="102" spans="1:9" ht="100" customHeight="1">
       <c r="A102">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
         <v>225</v>
@@ -7782,16 +7782,16 @@
         <v>226</v>
       </c>
       <c r="E102">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="F102">
-        <v>0.49352</v>
+        <v>9</v>
       </c>
       <c r="G102">
-        <v>-2.26778354843842</v>
+        <v>0.8978060342685438</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="103" spans="1:9" ht="100" customHeight="1">
       <c r="A103">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
         <v>227</v>
@@ -7808,16 +7808,16 @@
         <v>228</v>
       </c>
       <c r="E103">
-        <v>4.5</v>
+        <v>248</v>
       </c>
       <c r="F103">
-        <v>0.59302</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>1.811705069448287</v>
+        <v>0.3720014599087912</v>
       </c>
       <c r="H103" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="104" spans="1:9" ht="100" customHeight="1">
       <c r="A104">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
         <v>229</v>
@@ -7834,16 +7834,16 @@
         <v>230</v>
       </c>
       <c r="E104">
-        <v>92.5</v>
+        <v>248</v>
       </c>
       <c r="F104">
-        <v>0.49352</v>
+        <v>97.5</v>
       </c>
       <c r="G104">
-        <v>-1.239873071544692</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="105" spans="1:9" ht="100" customHeight="1">
       <c r="A105">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B105" t="s">
         <v>231</v>
@@ -7860,16 +7860,16 @@
         <v>232</v>
       </c>
       <c r="E105">
-        <v>2.5</v>
+        <v>248</v>
       </c>
       <c r="F105">
-        <v>0.49352</v>
+        <v>31</v>
       </c>
       <c r="G105">
-        <v>1.808040943597903</v>
+        <v>0.3948748769913301</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="106" spans="1:9" ht="100" customHeight="1">
       <c r="A106">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
         <v>233</v>
@@ -7886,16 +7886,16 @@
         <v>234</v>
       </c>
       <c r="E106">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="F106">
-        <v>0.49352</v>
+        <v>64</v>
       </c>
       <c r="G106">
-        <v>0.2001051401535413</v>
+        <v>-0.3412024452107102</v>
       </c>
       <c r="H106" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="107" spans="1:9" ht="100" customHeight="1">
       <c r="A107">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
         <v>235</v>
@@ -7912,16 +7912,16 @@
         <v>236</v>
       </c>
       <c r="E107">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="F107">
-        <v>0.49352</v>
+        <v>19.5</v>
       </c>
       <c r="G107">
-        <v>-0.2839537127928058</v>
+        <v>0.6997337386092292</v>
       </c>
       <c r="H107" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -7929,7 +7929,7 @@
     </row>
     <row r="108" spans="1:9" ht="100" customHeight="1">
       <c r="A108">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
         <v>237</v>
@@ -7938,16 +7938,16 @@
         <v>238</v>
       </c>
       <c r="E108">
-        <v>97.5</v>
+        <v>248</v>
       </c>
       <c r="F108">
-        <v>0.49352</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>-1.808040943597905</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I108">
         <v>1</v>
